--- a/Backtests/Results.xlsx
+++ b/Backtests/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\FINANCE\Code\Customs\Guilherme L (Offline)\Backtests\Seven Strats\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E240DC-0D3B-4663-AE3C-6507DAC22968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291AD6B9-D3A8-4859-8052-2CC67315BCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -507,34 +507,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
@@ -737,6 +714,20 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -757,32 +748,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{663D4A4A-A7FD-48B4-BB7B-95C89E11A7BB}" name="DATA" displayName="DATA" ref="A3:R320" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{663D4A4A-A7FD-48B4-BB7B-95C89E11A7BB}" name="DATA" displayName="DATA" ref="A3:R320" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A3:R320" xr:uid="{663D4A4A-A7FD-48B4-BB7B-95C89E11A7BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:R5">
     <sortCondition descending="1" ref="M3:M5"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{80F737D8-95FF-4396-90BA-8F3E5EDD270E}" name="Row" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{80F737D8-95FF-4396-90BA-8F3E5EDD270E}" name="Row" dataDxfId="17">
       <calculatedColumnFormula xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{240815E8-4EAD-4E50-8868-352BF9C0C03B}" name="Symbol" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{ECDCE2D2-93ED-4C29-8BAF-5A685CDFAD37}" name="TF" dataDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{CE54275A-8E73-4434-9CCA-1D37E9F3319D}" name="Strat" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{5E30AF0A-29CA-4520-8589-D24F50F5175A}" name="Side" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A00FBB95-DD7D-4265-9517-7F743C39FAEC}" name="Entry" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{B994E8F1-CE06-4D10-A7A1-0B7FF0BAE02C}" name="Exit" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{BFAB0BC0-9182-47D0-A130-ACC7EB2065EC}" name="TP" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{FAF53F3B-52B6-4083-A23D-98FBC2FD627C}" name="SL" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{0E11A7A3-5DB0-4113-A501-7A86544C09A1}" name="Trades Total" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{B9781E26-C37E-4F5C-A9C9-20E909ECCD53}" name="Trades Winners" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{B337A097-C2A2-4D21-AF14-7EBD1F84092F}" name="Trades Losers" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{54E101F8-524E-4BFE-A494-832AD160AD2D}" name="Total PnL (pts)" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{A4FB9CF9-8E6D-44F5-9B0F-CC5E6EBDF86F}" name="Avg PnL (pts)" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{B1824063-9EA8-4511-A4AF-DB36AB2EC45D}" name="Max Profit (pts)" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{81639DD0-B3A0-49D7-8357-6EEEB054E94C}" name="Avg Profit (pts)" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{700747E2-51D2-4FAB-A463-57AFEC44C3D9}" name="Avg Loss (pts)" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{37F0093F-B957-48CF-AE97-1A970CA23F62}" name="Max Loss (pts)" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{240815E8-4EAD-4E50-8868-352BF9C0C03B}" name="Symbol" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{ECDCE2D2-93ED-4C29-8BAF-5A685CDFAD37}" name="TF" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{CE54275A-8E73-4434-9CCA-1D37E9F3319D}" name="Strat" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{5E30AF0A-29CA-4520-8589-D24F50F5175A}" name="Side" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{A00FBB95-DD7D-4265-9517-7F743C39FAEC}" name="Entry" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{B994E8F1-CE06-4D10-A7A1-0B7FF0BAE02C}" name="Exit" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{BFAB0BC0-9182-47D0-A130-ACC7EB2065EC}" name="TP" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FAF53F3B-52B6-4083-A23D-98FBC2FD627C}" name="SL" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{0E11A7A3-5DB0-4113-A501-7A86544C09A1}" name="Trades Total" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{B9781E26-C37E-4F5C-A9C9-20E909ECCD53}" name="Trades Winners" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{B337A097-C2A2-4D21-AF14-7EBD1F84092F}" name="Trades Losers" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{54E101F8-524E-4BFE-A494-832AD160AD2D}" name="Total PnL (pts)" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{A4FB9CF9-8E6D-44F5-9B0F-CC5E6EBDF86F}" name="Avg PnL (pts)" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{B1824063-9EA8-4511-A4AF-DB36AB2EC45D}" name="Max Profit (pts)" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{81639DD0-B3A0-49D7-8357-6EEEB054E94C}" name="Avg Profit (pts)" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{700747E2-51D2-4FAB-A463-57AFEC44C3D9}" name="Avg Loss (pts)" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{37F0093F-B957-48CF-AE97-1A970CA23F62}" name="Max Loss (pts)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1057,7 +1048,7 @@
   <dimension ref="A1:R320"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F319" sqref="F319"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3592,31 +3583,31 @@
         <v>80</v>
       </c>
       <c r="J46" s="13">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="K46" s="13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L46" s="13">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="M46" s="1">
-        <v>-33734.932314731399</v>
+        <v>-200.15771112854401</v>
       </c>
       <c r="N46" s="1">
-        <v>-1054.2166348353501</v>
+        <v>-1.9245933762359999</v>
       </c>
       <c r="O46" s="2">
-        <v>499.87492704078602</v>
+        <v>499.98037291460702</v>
       </c>
       <c r="P46" s="2">
-        <v>499.60319104333303</v>
+        <v>499.65373804499802</v>
       </c>
       <c r="Q46" s="3">
-        <v>-1276.1908956751699</v>
+        <v>-79.947889375094704</v>
       </c>
       <c r="R46" s="3">
-        <v>-33575</v>
+        <v>-79.996859049875596</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3649,31 +3640,31 @@
         <v>80</v>
       </c>
       <c r="J47" s="13">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="K47" s="13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L47" s="13">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="M47" s="1">
-        <v>-14230.279538372701</v>
+        <v>-839.45315143757</v>
       </c>
       <c r="N47" s="1">
-        <v>-229.52063771568899</v>
+        <v>-8.0716649176689401</v>
       </c>
       <c r="O47" s="2">
         <v>599.97046953439701</v>
       </c>
       <c r="P47" s="2">
-        <v>599.52533427749097</v>
+        <v>599.60544910762701</v>
       </c>
       <c r="Q47" s="3">
-        <v>-335.03557960572999</v>
+        <v>-79.947452598080304</v>
       </c>
       <c r="R47" s="3">
-        <v>-14109.9999999999</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3706,31 +3697,31 @@
         <v>80</v>
       </c>
       <c r="J48" s="13">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="K48" s="13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L48" s="13">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M48" s="1">
-        <v>-25594.9282218261</v>
+        <v>-1848.2721268088201</v>
       </c>
       <c r="N48" s="1">
-        <v>-609.40305290062201</v>
+        <v>-17.771847373161702</v>
       </c>
       <c r="O48" s="2">
         <v>699.82489785709095</v>
       </c>
       <c r="P48" s="2">
-        <v>699.44446746066296</v>
+        <v>638.52316612693505</v>
       </c>
       <c r="Q48" s="3">
-        <v>-747.17647609654705</v>
+        <v>-79.947164441591994</v>
       </c>
       <c r="R48" s="3">
-        <v>-25435</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3763,31 +3754,31 @@
         <v>80</v>
       </c>
       <c r="J49" s="13">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="K49" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L49" s="13">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M49" s="1">
-        <v>-28374.383530011601</v>
+        <v>-2906.7449321495801</v>
       </c>
       <c r="N49" s="1">
-        <v>-1134.97534120046</v>
+        <v>-27.949470501438199</v>
       </c>
       <c r="O49" s="2">
         <v>799.79988326523699</v>
       </c>
       <c r="P49" s="2">
-        <v>799.63812481088803</v>
+        <v>692.57915815816602</v>
       </c>
       <c r="Q49" s="3">
-        <v>-1303.2025991144901</v>
+        <v>-79.946381848007604</v>
       </c>
       <c r="R49" s="3">
-        <v>-28215</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3820,31 +3811,31 @@
         <v>80</v>
       </c>
       <c r="J50" s="13">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="K50" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L50" s="13">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M50" s="1">
-        <v>-31214.212024955101</v>
+        <v>-2841.4767220978501</v>
       </c>
       <c r="N50" s="1">
-        <v>-1156.08192685019</v>
+        <v>-27.321891558633201</v>
       </c>
       <c r="O50" s="2">
-        <v>899.77486867339701</v>
+        <v>899.77486867338303</v>
       </c>
       <c r="P50" s="2">
-        <v>899.59289041225497</v>
+        <v>701.90318816557794</v>
       </c>
       <c r="Q50" s="3">
-        <v>-1320.53591223118</v>
+        <v>-79.946381848009295</v>
       </c>
       <c r="R50" s="3">
-        <v>-31095</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3877,31 +3868,31 @@
         <v>80</v>
       </c>
       <c r="J51" s="13">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="K51" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L51" s="13">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M51" s="1">
-        <v>-27919.156279390099</v>
+        <v>-2441.66313130238</v>
       </c>
       <c r="N51" s="1">
-        <v>-930.63854264633801</v>
+        <v>-23.477530108676699</v>
       </c>
       <c r="O51" s="2">
         <v>999.74985408154305</v>
       </c>
       <c r="P51" s="2">
-        <v>999.54765601360805</v>
+        <v>759.019415422066</v>
       </c>
       <c r="Q51" s="3">
-        <v>-1068.5089854077601</v>
+        <v>-79.946381848008699</v>
       </c>
       <c r="R51" s="3">
-        <v>-27760</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3934,31 +3925,31 @@
         <v>80</v>
       </c>
       <c r="J52" s="13">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="K52" s="13">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L52" s="13">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="M52" s="1">
-        <v>-30004.6940732681</v>
+        <v>-1119.3428195674301</v>
       </c>
       <c r="N52" s="1">
-        <v>-3000.4694073268101</v>
+        <v>-8.6103293812879595</v>
       </c>
       <c r="O52" s="2">
-        <v>499.67272897284403</v>
+        <v>499.98037291462202</v>
       </c>
       <c r="P52" s="2">
-        <v>499.67272897284403</v>
+        <v>499.66330453836002</v>
       </c>
       <c r="Q52" s="3">
-        <v>-3389.3740891378802</v>
+        <v>-79.946979755975406</v>
       </c>
       <c r="R52" s="3">
-        <v>-29865</v>
+        <v>-79.996859049875596</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3991,31 +3982,31 @@
         <v>80</v>
       </c>
       <c r="J53" s="13">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="K53" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L53" s="13">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="M53" s="1">
-        <v>-28854.7560060367</v>
+        <v>-1558.7461518796599</v>
       </c>
       <c r="N53" s="1">
-        <v>-2623.15963691243</v>
+        <v>-11.990355014458901</v>
       </c>
       <c r="O53" s="2">
-        <v>599.60727476740396</v>
+        <v>599.97046953439701</v>
       </c>
       <c r="P53" s="2">
-        <v>599.60727476740396</v>
+        <v>599.61635293572601</v>
       </c>
       <c r="Q53" s="3">
-        <v>-2945.43632808042</v>
+        <v>-79.946655897812903</v>
       </c>
       <c r="R53" s="3">
-        <v>-28735</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -4048,31 +4039,31 @@
         <v>80</v>
       </c>
       <c r="J54" s="13">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K54" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L54" s="13">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="M54" s="1">
-        <v>-33334.8975197049</v>
+        <v>-2367.67301925417</v>
       </c>
       <c r="N54" s="1">
-        <v>-793.688036183451</v>
+        <v>-18.212869378878199</v>
       </c>
       <c r="O54" s="2">
         <v>699.82489785709095</v>
       </c>
       <c r="P54" s="2">
-        <v>699.44446746066296</v>
+        <v>649.63211373815602</v>
       </c>
       <c r="Q54" s="3">
-        <v>-950.85987867230494</v>
+        <v>-79.946439246839404</v>
       </c>
       <c r="R54" s="3">
-        <v>-33175</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -4105,31 +4096,31 @@
         <v>80</v>
       </c>
       <c r="J55" s="13">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="K55" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L55" s="13">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="M55" s="1">
-        <v>-41144.468130814203</v>
+        <v>-4105.6012203054697</v>
       </c>
       <c r="N55" s="1">
-        <v>-1645.77872523256</v>
+        <v>-31.5815478485036</v>
       </c>
       <c r="O55" s="2">
         <v>799.79988326523699</v>
       </c>
       <c r="P55" s="2">
-        <v>799.63812481088803</v>
+        <v>705.97301869113596</v>
       </c>
       <c r="Q55" s="3">
-        <v>-1858.4236687145999</v>
+        <v>-79.945781719955406</v>
       </c>
       <c r="R55" s="3">
-        <v>-40985</v>
+        <v>-79.996859666338395</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -4162,31 +4153,31 @@
         <v>80</v>
       </c>
       <c r="J56" s="13">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="K56" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L56" s="13">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M56" s="1">
-        <v>-43374.394303528497</v>
+        <v>-3940.3667549509801</v>
       </c>
       <c r="N56" s="1">
-        <v>-1606.4590482788301</v>
+        <v>-30.3105134996229</v>
       </c>
       <c r="O56" s="2">
-        <v>899.77486867339701</v>
+        <v>899.77486867338303</v>
       </c>
       <c r="P56" s="2">
-        <v>899.59289041225497</v>
+        <v>726.62732686046104</v>
       </c>
       <c r="Q56" s="3">
-        <v>-1806.94320337412</v>
+        <v>-79.945781719956301</v>
       </c>
       <c r="R56" s="3">
-        <v>-43254.999999999898</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -4219,31 +4210,31 @@
         <v>80</v>
       </c>
       <c r="J57" s="13">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="K57" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L57" s="13">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="M57" s="1">
-        <v>-44149.383474344999</v>
+        <v>-3440.5869088527302</v>
       </c>
       <c r="N57" s="1">
-        <v>-1471.6461158115001</v>
+        <v>-26.466053145021</v>
       </c>
       <c r="O57" s="2">
         <v>999.74985408154305</v>
       </c>
       <c r="P57" s="2">
-        <v>999.54765601360805</v>
+        <v>789.09980762273096</v>
       </c>
       <c r="Q57" s="3">
-        <v>-1648.1599566561499</v>
+        <v>-79.945781719955605</v>
       </c>
       <c r="R57" s="3">
-        <v>-43990</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -4276,31 +4267,31 @@
         <v>80</v>
       </c>
       <c r="J58" s="13">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="K58" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L58" s="13">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="M58" s="1">
-        <v>-30004.6940732681</v>
+        <v>-1658.4101175426099</v>
       </c>
       <c r="N58" s="1">
-        <v>-3000.4694073268101</v>
+        <v>-11.516736927379201</v>
       </c>
       <c r="O58" s="2">
-        <v>499.67272897284403</v>
+        <v>499.98037291462202</v>
       </c>
       <c r="P58" s="2">
-        <v>499.67272897284403</v>
+        <v>499.68090990952197</v>
       </c>
       <c r="Q58" s="3">
-        <v>-3389.3740891378802</v>
+        <v>-79.944768393736197</v>
       </c>
       <c r="R58" s="3">
-        <v>-29865</v>
+        <v>-79.996859049875596</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -4333,31 +4324,31 @@
         <v>80</v>
       </c>
       <c r="J59" s="13">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="K59" s="13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L59" s="13">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="M59" s="1">
-        <v>-28854.7560060367</v>
+        <v>-1997.82093068525</v>
       </c>
       <c r="N59" s="1">
-        <v>-2623.15963691243</v>
+        <v>-13.873756463092001</v>
       </c>
       <c r="O59" s="2">
-        <v>599.60727476740396</v>
+        <v>599.97046953439701</v>
       </c>
       <c r="P59" s="2">
-        <v>599.60727476740396</v>
+        <v>599.64055022729997</v>
       </c>
       <c r="Q59" s="3">
-        <v>-2945.43632808042</v>
+        <v>-79.944527952826604</v>
       </c>
       <c r="R59" s="3">
-        <v>-28735</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4390,31 +4381,31 @@
         <v>80</v>
       </c>
       <c r="J60" s="13">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="K60" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L60" s="13">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="M60" s="1">
-        <v>-43349.324382451501</v>
+        <v>-2706.7552788901298</v>
       </c>
       <c r="N60" s="1">
-        <v>-1354.6663869516101</v>
+        <v>-18.7969116589592</v>
       </c>
       <c r="O60" s="2">
-        <v>699.82489785709095</v>
+        <v>699.94763418741002</v>
       </c>
       <c r="P60" s="2">
-        <v>699.65331999033003</v>
+        <v>653.82507377559205</v>
       </c>
       <c r="Q60" s="3">
-        <v>-1567.1822187042201</v>
+        <v>-79.944364880282194</v>
       </c>
       <c r="R60" s="3">
-        <v>-43210</v>
+        <v>-79.996859666367499</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4447,31 +4438,31 @@
         <v>80</v>
       </c>
       <c r="J61" s="13">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="K61" s="13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L61" s="13">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="M61" s="1">
-        <v>-30364.518693444799</v>
+        <v>-4344.6909607720099</v>
       </c>
       <c r="N61" s="1">
-        <v>-1214.58074773779</v>
+        <v>-30.171465005361199</v>
       </c>
       <c r="O61" s="2">
-        <v>799.79988326523699</v>
+        <v>799.94015335701897</v>
       </c>
       <c r="P61" s="2">
-        <v>799.63812481088803</v>
+        <v>716.41381143178796</v>
       </c>
       <c r="Q61" s="3">
-        <v>-1389.73021491593</v>
+        <v>-79.943816767837802</v>
       </c>
       <c r="R61" s="3">
-        <v>-30205</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4504,31 +4495,31 @@
         <v>80</v>
       </c>
       <c r="J62" s="13">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="K62" s="13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L62" s="13">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="M62" s="1">
-        <v>-39724.3274927034</v>
+        <v>-4079.4639762476399</v>
       </c>
       <c r="N62" s="1">
-        <v>-1471.27138861864</v>
+        <v>-28.329610946164099</v>
       </c>
       <c r="O62" s="2">
-        <v>899.77486867339701</v>
+        <v>899.93267252665805</v>
       </c>
       <c r="P62" s="2">
-        <v>899.59289041225497</v>
+        <v>745.88347637892798</v>
       </c>
       <c r="Q62" s="3">
-        <v>-1660.94053094111</v>
+        <v>-79.943816767837006</v>
       </c>
       <c r="R62" s="3">
-        <v>-39605</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4561,31 +4552,31 @@
         <v>80</v>
       </c>
       <c r="J63" s="13">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="K63" s="13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L63" s="13">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="M63" s="1">
-        <v>-41739.279667122501</v>
+        <v>-3479.6916109798299</v>
       </c>
       <c r="N63" s="1">
-        <v>-1391.30932223741</v>
+        <v>-24.1645250762488</v>
       </c>
       <c r="O63" s="2">
-        <v>999.74985408154305</v>
+        <v>999.92519169626701</v>
       </c>
       <c r="P63" s="2">
-        <v>999.54765601360805</v>
+        <v>812.52485029756804</v>
       </c>
       <c r="Q63" s="3">
-        <v>-1562.08482068391</v>
+        <v>-79.943816767836694</v>
       </c>
       <c r="R63" s="3">
-        <v>-41580</v>
+        <v>-79.996859666352904</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4618,31 +4609,31 @@
         <v>80</v>
       </c>
       <c r="J64" s="13">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="K64" s="13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L64" s="13">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="M64" s="1">
-        <v>-33594.864105828397</v>
+        <v>-1518.44242317198</v>
       </c>
       <c r="N64" s="1">
-        <v>-3359.4864105828401</v>
+        <v>-9.2587952632438295</v>
       </c>
       <c r="O64" s="2">
-        <v>499.67272897284403</v>
+        <v>499.98037291462202</v>
       </c>
       <c r="P64" s="2">
-        <v>499.67272897284403</v>
+        <v>499.68710881539897</v>
       </c>
       <c r="Q64" s="3">
-        <v>-3788.2818705334798</v>
+        <v>-79.945726385277595</v>
       </c>
       <c r="R64" s="3">
-        <v>-33455</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4675,31 +4666,31 @@
         <v>80</v>
       </c>
       <c r="J65" s="13">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="K65" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L65" s="13">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="M65" s="1">
-        <v>-34654.770300774602</v>
+        <v>-1558.01989474536</v>
       </c>
       <c r="N65" s="1">
-        <v>-3150.43366370678</v>
+        <v>-9.50012130942293</v>
       </c>
       <c r="O65" s="2">
-        <v>599.60727476740396</v>
+        <v>599.97046953439701</v>
       </c>
       <c r="P65" s="2">
-        <v>599.60727476740396</v>
+        <v>599.64516191750101</v>
       </c>
       <c r="Q65" s="3">
-        <v>-3525.4377575541998</v>
+        <v>-79.945494199611403</v>
       </c>
       <c r="R65" s="3">
-        <v>-34534.999999999898</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4732,31 +4723,31 @@
         <v>80</v>
       </c>
       <c r="J66" s="13">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="K66" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L66" s="13">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="M66" s="1">
-        <v>-28914.7363102819</v>
+        <v>-1967.1209013810101</v>
       </c>
       <c r="N66" s="1">
-        <v>-2224.2104854063</v>
+        <v>-11.994639642567099</v>
       </c>
       <c r="O66" s="2">
-        <v>699.54182056196396</v>
+        <v>699.94763418741002</v>
       </c>
       <c r="P66" s="2">
-        <v>699.54182056196396</v>
+        <v>662.98228508611101</v>
       </c>
       <c r="Q66" s="3">
-        <v>-2467.8565109036499</v>
+        <v>-79.945336762903906</v>
       </c>
       <c r="R66" s="3">
-        <v>-28735</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4789,31 +4780,31 @@
         <v>80</v>
       </c>
       <c r="J67" s="13">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="K67" s="13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L67" s="13">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M67" s="1">
-        <v>-30684.755277807599</v>
+        <v>-3305.2232416936099</v>
       </c>
       <c r="N67" s="1">
-        <v>-2191.7682341291102</v>
+        <v>-20.153800254229299</v>
       </c>
       <c r="O67" s="2">
-        <v>799.47636635653896</v>
+        <v>799.94015335701897</v>
       </c>
       <c r="P67" s="2">
-        <v>799.47636635653896</v>
+        <v>737.19925295332098</v>
       </c>
       <c r="Q67" s="3">
-        <v>-2421.8639726280098</v>
+        <v>-79.9448307706149</v>
       </c>
       <c r="R67" s="3">
-        <v>-30525</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4846,31 +4837,31 @@
         <v>80</v>
       </c>
       <c r="J68" s="13">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="K68" s="13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L68" s="13">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="M68" s="1">
-        <v>-30254.745939029301</v>
+        <v>-2740.1629156002</v>
       </c>
       <c r="N68" s="1">
-        <v>-2016.98306260195</v>
+        <v>-16.708310460976801</v>
       </c>
       <c r="O68" s="2">
-        <v>899.41091215111305</v>
+        <v>899.93267252665805</v>
       </c>
       <c r="P68" s="2">
-        <v>899.41091215111305</v>
+        <v>784.28761346111105</v>
       </c>
       <c r="Q68" s="3">
-        <v>-2225.2969179414599</v>
+        <v>-79.944830770615397</v>
       </c>
       <c r="R68" s="3">
-        <v>-30115</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4903,31 +4894,31 @@
         <v>80</v>
       </c>
       <c r="J69" s="13">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="K69" s="13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L69" s="13">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="M69" s="1">
-        <v>-28184.7589135706</v>
+        <v>-1840.5572087631699</v>
       </c>
       <c r="N69" s="1">
-        <v>-1761.54743209816</v>
+        <v>-11.222909809531499</v>
       </c>
       <c r="O69" s="2">
-        <v>999.34545794567305</v>
+        <v>999.92519169626701</v>
       </c>
       <c r="P69" s="2">
-        <v>999.34545794567305</v>
+        <v>859.254755697527</v>
       </c>
       <c r="Q69" s="3">
-        <v>-1945.60695810108</v>
+        <v>-79.944830770615098</v>
       </c>
       <c r="R69" s="3">
-        <v>-28065</v>
+        <v>-79.996913222959805</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -4960,31 +4951,31 @@
         <v>80</v>
       </c>
       <c r="J70" s="13">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="K70" s="13">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L70" s="13">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="M70" s="1">
-        <v>-33594.864105828397</v>
+        <v>-1239.6865161200501</v>
       </c>
       <c r="N70" s="1">
-        <v>-3359.4864105828401</v>
+        <v>-7.0839229492574498</v>
       </c>
       <c r="O70" s="2">
-        <v>499.67272897284403</v>
+        <v>499.98037291462202</v>
       </c>
       <c r="P70" s="2">
-        <v>499.67272897284403</v>
+        <v>499.63302398637097</v>
       </c>
       <c r="Q70" s="3">
-        <v>-3788.2818705334798</v>
+        <v>-79.945183292942602</v>
       </c>
       <c r="R70" s="3">
-        <v>-33455</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -5017,31 +5008,31 @@
         <v>80</v>
       </c>
       <c r="J71" s="13">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="K71" s="13">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L71" s="13">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="M71" s="1">
-        <v>-34654.770300774602</v>
+        <v>-1079.6271174150299</v>
       </c>
       <c r="N71" s="1">
-        <v>-3150.43366370678</v>
+        <v>-6.1692978138001804</v>
       </c>
       <c r="O71" s="2">
-        <v>599.60727476740396</v>
+        <v>599.97046953439701</v>
       </c>
       <c r="P71" s="2">
-        <v>599.60727476740396</v>
+        <v>599.56784075095197</v>
       </c>
       <c r="Q71" s="3">
-        <v>-3525.4377575541998</v>
+        <v>-79.944974946686699</v>
       </c>
       <c r="R71" s="3">
-        <v>-34534.999999999898</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -5074,31 +5065,31 @@
         <v>80</v>
       </c>
       <c r="J72" s="13">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="K72" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L72" s="13">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="M72" s="1">
-        <v>-28914.7363102819</v>
+        <v>-1289.0912537722099</v>
       </c>
       <c r="N72" s="1">
-        <v>-2224.2104854063</v>
+        <v>-7.36623573584124</v>
       </c>
       <c r="O72" s="2">
-        <v>699.54182056196396</v>
+        <v>699.94763418741002</v>
       </c>
       <c r="P72" s="2">
-        <v>699.54182056196396</v>
+        <v>667.18778636709806</v>
       </c>
       <c r="Q72" s="3">
-        <v>-2467.8565109036499</v>
+        <v>-79.944833050714493</v>
       </c>
       <c r="R72" s="3">
-        <v>-28735</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -5131,31 +5122,31 @@
         <v>80</v>
       </c>
       <c r="J73" s="13">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="K73" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L73" s="13">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M73" s="1">
-        <v>-30684.755277807599</v>
+        <v>-3305.08660428453</v>
       </c>
       <c r="N73" s="1">
-        <v>-2191.7682341291102</v>
+        <v>-18.886209167340098</v>
       </c>
       <c r="O73" s="2">
-        <v>799.47636635653896</v>
+        <v>799.94015335701897</v>
       </c>
       <c r="P73" s="2">
-        <v>799.47636635653896</v>
+        <v>741.97935083608104</v>
       </c>
       <c r="Q73" s="3">
-        <v>-2421.8639726280098</v>
+        <v>-79.943322007120898</v>
       </c>
       <c r="R73" s="3">
-        <v>-30525</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -5188,31 +5179,31 @@
         <v>80</v>
       </c>
       <c r="J74" s="13">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="K74" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L74" s="13">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="M74" s="1">
-        <v>-30254.745939029301</v>
+        <v>-2640.10871251247</v>
       </c>
       <c r="N74" s="1">
-        <v>-2016.98306260195</v>
+        <v>-15.0863355000712</v>
       </c>
       <c r="O74" s="2">
-        <v>899.41091215111305</v>
+        <v>899.93267252665805</v>
       </c>
       <c r="P74" s="2">
-        <v>899.41091215111305</v>
+        <v>793.13149635701495</v>
       </c>
       <c r="Q74" s="3">
-        <v>-2225.2969179414599</v>
+        <v>-79.943322007121395</v>
       </c>
       <c r="R74" s="3">
-        <v>-30115</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -5245,31 +5236,31 @@
         <v>80</v>
       </c>
       <c r="J75" s="13">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="K75" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L75" s="13">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="M75" s="1">
-        <v>-28184.7589135706</v>
+        <v>-1640.58543999672</v>
       </c>
       <c r="N75" s="1">
-        <v>-1761.54743209816</v>
+        <v>-9.3747739428384005</v>
       </c>
       <c r="O75" s="2">
-        <v>999.34545794567305</v>
+        <v>999.92519169626701</v>
       </c>
       <c r="P75" s="2">
-        <v>999.34545794567305</v>
+        <v>870.01790193514103</v>
       </c>
       <c r="Q75" s="3">
-        <v>-1945.60695810108</v>
+        <v>-79.943322007120699</v>
       </c>
       <c r="R75" s="3">
-        <v>-28065</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -5302,31 +5293,31 @@
         <v>80</v>
       </c>
       <c r="J76" s="13">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="K76" s="13">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L76" s="13">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="M76" s="1">
-        <v>-33594.864105828397</v>
+        <v>-1139.7686649023899</v>
       </c>
       <c r="N76" s="1">
-        <v>-3359.4864105828401</v>
+        <v>-6.2970644469745602</v>
       </c>
       <c r="O76" s="2">
-        <v>499.67272897284403</v>
+        <v>499.98037291462202</v>
       </c>
       <c r="P76" s="2">
-        <v>499.67272897284403</v>
+        <v>499.63651034577799</v>
       </c>
       <c r="Q76" s="3">
-        <v>-3788.2818705334798</v>
+        <v>-79.945622802881502</v>
       </c>
       <c r="R76" s="3">
-        <v>-33455</v>
+        <v>-79.996913222988894</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -5359,31 +5350,31 @@
         <v>80</v>
       </c>
       <c r="J77" s="13">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="K77" s="13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L77" s="13">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="M77" s="1">
-        <v>-34654.770300774602</v>
+        <v>-879.76662414681005</v>
       </c>
       <c r="N77" s="1">
-        <v>-3150.43366370678</v>
+        <v>-4.8605890836840304</v>
       </c>
       <c r="O77" s="2">
-        <v>599.60727476740396</v>
+        <v>599.97046953439701</v>
       </c>
       <c r="P77" s="2">
-        <v>599.60727476740396</v>
+        <v>599.57224132856902</v>
       </c>
       <c r="Q77" s="3">
-        <v>-3525.4377575541998</v>
+        <v>-79.945412737380096</v>
       </c>
       <c r="R77" s="3">
-        <v>-34534.999999999898</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -5416,31 +5407,31 @@
         <v>80</v>
       </c>
       <c r="J78" s="13">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="K78" s="13">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L78" s="13">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="M78" s="1">
-        <v>-28914.7363102819</v>
+        <v>-989.28811845341897</v>
       </c>
       <c r="N78" s="1">
-        <v>-2224.2104854063</v>
+        <v>-5.46568021244983</v>
       </c>
       <c r="O78" s="2">
-        <v>699.54182056196396</v>
+        <v>699.94763418741002</v>
       </c>
       <c r="P78" s="2">
-        <v>699.54182056196396</v>
+        <v>668.98838125525003</v>
       </c>
       <c r="Q78" s="3">
-        <v>-2467.8565109036499</v>
+        <v>-79.945269822379899</v>
       </c>
       <c r="R78" s="3">
-        <v>-28735</v>
+        <v>-79.996913222959805</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -5473,31 +5464,31 @@
         <v>80</v>
       </c>
       <c r="J79" s="13">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="K79" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L79" s="13">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M79" s="1">
-        <v>-30684.755277807599</v>
+        <v>-3784.8360769598999</v>
       </c>
       <c r="N79" s="1">
-        <v>-2191.7682341291102</v>
+        <v>-20.9106965577895</v>
       </c>
       <c r="O79" s="2">
-        <v>799.47636635653896</v>
+        <v>799.94015335701897</v>
       </c>
       <c r="P79" s="2">
-        <v>799.47636635653896</v>
+        <v>741.97935083608002</v>
       </c>
       <c r="Q79" s="3">
-        <v>-2421.8639726280098</v>
+        <v>-79.943854987077003</v>
       </c>
       <c r="R79" s="3">
-        <v>-30525</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -5530,31 +5521,31 @@
         <v>80</v>
       </c>
       <c r="J80" s="13">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="K80" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L80" s="13">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="M80" s="1">
-        <v>-30254.745939029301</v>
+        <v>-3119.8581851877898</v>
       </c>
       <c r="N80" s="1">
-        <v>-2016.98306260195</v>
+        <v>-17.236785553523699</v>
       </c>
       <c r="O80" s="2">
-        <v>899.41091215111305</v>
+        <v>899.93267252665805</v>
       </c>
       <c r="P80" s="2">
-        <v>899.41091215111305</v>
+        <v>793.13149635701404</v>
       </c>
       <c r="Q80" s="3">
-        <v>-2225.2969179414599</v>
+        <v>-79.943854987077202</v>
       </c>
       <c r="R80" s="3">
-        <v>-30115</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -5587,31 +5578,31 @@
         <v>80</v>
       </c>
       <c r="J81" s="13">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="K81" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L81" s="13">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="M81" s="1">
-        <v>-28184.7589135706</v>
+        <v>-2120.33491267212</v>
       </c>
       <c r="N81" s="1">
-        <v>-1761.54743209816</v>
+        <v>-11.7145575285753</v>
       </c>
       <c r="O81" s="2">
-        <v>999.34545794567305</v>
+        <v>999.92519169626701</v>
       </c>
       <c r="P81" s="2">
-        <v>999.34545794567305</v>
+        <v>870.01790193514103</v>
       </c>
       <c r="Q81" s="3">
-        <v>-1945.60695810108</v>
+        <v>-79.943854987077103</v>
       </c>
       <c r="R81" s="3">
-        <v>-28065</v>
+        <v>-79.996913222988894</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -5644,31 +5635,31 @@
         <v>80</v>
       </c>
       <c r="J82" s="13">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="K82" s="13">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L82" s="13">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="M82" s="1">
-        <v>-33594.864105828397</v>
+        <v>-1619.4058429025699</v>
       </c>
       <c r="N82" s="1">
-        <v>-3359.4864105828401</v>
+        <v>-8.65992429359666</v>
       </c>
       <c r="O82" s="2">
-        <v>499.67272897284403</v>
+        <v>499.98037291463697</v>
       </c>
       <c r="P82" s="2">
-        <v>499.67272897284403</v>
+        <v>499.63651034577799</v>
       </c>
       <c r="Q82" s="3">
-        <v>-3788.2818705334798</v>
+        <v>-79.945399883265097</v>
       </c>
       <c r="R82" s="3">
-        <v>-33455</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -5701,31 +5692,31 @@
         <v>80</v>
       </c>
       <c r="J83" s="13">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="K83" s="13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L83" s="13">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="M83" s="1">
-        <v>-34654.770300774602</v>
+        <v>-1359.4038021470401</v>
       </c>
       <c r="N83" s="1">
-        <v>-3150.43366370678</v>
+        <v>-7.26953904891469</v>
       </c>
       <c r="O83" s="2">
-        <v>599.60727476740396</v>
+        <v>599.97046953439701</v>
       </c>
       <c r="P83" s="2">
-        <v>599.60727476740396</v>
+        <v>599.57224132857004</v>
       </c>
       <c r="Q83" s="3">
-        <v>-3525.4377575541998</v>
+        <v>-79.945201369571507</v>
       </c>
       <c r="R83" s="3">
-        <v>-34534.999999999898</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -5758,31 +5749,31 @@
         <v>80</v>
       </c>
       <c r="J84" s="13">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="K84" s="13">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L84" s="13">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="M84" s="1">
-        <v>-28914.7363102819</v>
+        <v>-1468.92529645373</v>
       </c>
       <c r="N84" s="1">
-        <v>-2224.2104854063</v>
+        <v>-7.8552154890573798</v>
       </c>
       <c r="O84" s="2">
-        <v>699.54182056196396</v>
+        <v>699.94763418741002</v>
       </c>
       <c r="P84" s="2">
-        <v>699.54182056196396</v>
+        <v>668.98838125524901</v>
       </c>
       <c r="Q84" s="3">
-        <v>-2467.8565109036499</v>
+        <v>-79.9450660298711</v>
       </c>
       <c r="R84" s="3">
-        <v>-28735</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -5815,31 +5806,31 @@
         <v>80</v>
       </c>
       <c r="J85" s="13">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="K85" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L85" s="13">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="M85" s="1">
-        <v>-30684.755277807599</v>
+        <v>-4264.4732549601104</v>
       </c>
       <c r="N85" s="1">
-        <v>-2191.7682341291102</v>
+        <v>-22.804669812620901</v>
       </c>
       <c r="O85" s="2">
-        <v>799.47636635653896</v>
+        <v>799.94015335701897</v>
       </c>
       <c r="P85" s="2">
-        <v>799.47636635653896</v>
+        <v>741.97935083608104</v>
       </c>
       <c r="Q85" s="3">
-        <v>-2421.8639726280098</v>
+        <v>-79.943705838098694</v>
       </c>
       <c r="R85" s="3">
-        <v>-30525</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -5872,31 +5863,31 @@
         <v>80</v>
       </c>
       <c r="J86" s="13">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="K86" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L86" s="13">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M86" s="1">
-        <v>-30254.745939029301</v>
+        <v>-3599.4953631879598</v>
       </c>
       <c r="N86" s="1">
-        <v>-2016.98306260195</v>
+        <v>-19.248638305817899</v>
       </c>
       <c r="O86" s="2">
-        <v>899.41091215111305</v>
+        <v>899.93267252665805</v>
       </c>
       <c r="P86" s="2">
-        <v>899.41091215111305</v>
+        <v>793.131496357017</v>
       </c>
       <c r="Q86" s="3">
-        <v>-2225.2969179414599</v>
+        <v>-79.943705838098694</v>
       </c>
       <c r="R86" s="3">
-        <v>-30115</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -5929,31 +5920,31 @@
         <v>80</v>
       </c>
       <c r="J87" s="13">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="K87" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L87" s="13">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="M87" s="1">
-        <v>-28184.7589135706</v>
+        <v>-2599.9720906724201</v>
       </c>
       <c r="N87" s="1">
-        <v>-1761.54743209816</v>
+        <v>-13.9035940677669</v>
       </c>
       <c r="O87" s="2">
-        <v>999.34545794567305</v>
+        <v>999.92519169626701</v>
       </c>
       <c r="P87" s="2">
-        <v>999.34545794567305</v>
+        <v>870.01790193514103</v>
       </c>
       <c r="Q87" s="3">
-        <v>-1945.60695810108</v>
+        <v>-79.943705838099106</v>
       </c>
       <c r="R87" s="3">
-        <v>-28065</v>
+        <v>-79.996913222974399</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -6415,31 +6406,31 @@
       </c>
       <c r="I97" s="12"/>
       <c r="J97" s="13">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="K97" s="13">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="L97" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M97" s="1">
-        <v>-41304.876597783397</v>
+        <v>536.48145260004003</v>
       </c>
       <c r="N97" s="1">
-        <v>-10326.2191494458</v>
+        <v>5.8313201369569603</v>
       </c>
       <c r="O97" s="2">
-        <v>80.073543642341903</v>
+        <v>80.284958273972705</v>
       </c>
       <c r="P97" s="2">
-        <v>80.061701108286798</v>
+        <v>80.075365727907197</v>
       </c>
       <c r="Q97" s="3">
-        <v>-20732.5</v>
+        <v>-1058.3333333333301</v>
       </c>
       <c r="R97" s="3">
-        <v>-40030</v>
+        <v>-1435</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -6470,31 +6461,31 @@
       </c>
       <c r="I98" s="12"/>
       <c r="J98" s="13">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="K98" s="13">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="L98" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M98" s="1">
-        <v>-41304.876597783397</v>
+        <v>-134.658426462629</v>
       </c>
       <c r="N98" s="1">
-        <v>-10326.2191494458</v>
+        <v>-1.8446359789401201</v>
       </c>
       <c r="O98" s="2">
-        <v>80.073543642341903</v>
+        <v>80.284958273972705</v>
       </c>
       <c r="P98" s="2">
-        <v>80.061701108286798</v>
+        <v>80.078552552020099</v>
       </c>
       <c r="Q98" s="3">
-        <v>-20732.5</v>
+        <v>-1116</v>
       </c>
       <c r="R98" s="3">
-        <v>-40030</v>
+        <v>-1435</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -6589,19 +6580,19 @@
         <v>2</v>
       </c>
       <c r="M100" s="1">
-        <v>358.23749867436698</v>
+        <v>358.23749867439602</v>
       </c>
       <c r="N100" s="1">
-        <v>10.235357104981899</v>
+        <v>10.2353571049827</v>
       </c>
       <c r="O100" s="2">
         <v>80.284958273972705</v>
       </c>
       <c r="P100" s="2">
-        <v>80.098106020435296</v>
+        <v>80.098106020435793</v>
       </c>
       <c r="Q100" s="3">
-        <v>-1142.5</v>
+        <v>-1142.49999999999</v>
       </c>
       <c r="R100" s="3">
         <v>-1420</v>
@@ -6635,31 +6626,31 @@
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="13">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K101" s="13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L101" s="13">
         <v>2</v>
       </c>
       <c r="M101" s="1">
-        <v>-39248.491169964698</v>
+        <v>-602.69386638127605</v>
       </c>
       <c r="N101" s="1">
-        <v>-2616.5660779976401</v>
+        <v>-26.204081147012001</v>
       </c>
       <c r="O101" s="2">
         <v>80.284958273972705</v>
       </c>
       <c r="P101" s="2">
-        <v>80.116063848868805</v>
+        <v>80.109815886606498</v>
       </c>
       <c r="Q101" s="3">
-        <v>-20145</v>
+        <v>-1142.5</v>
       </c>
       <c r="R101" s="3">
-        <v>-38870</v>
+        <v>-1420</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -9897,27 +9888,31 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="13">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K167" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L167" s="13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M167" s="1">
-        <v>-42535</v>
+        <v>-670.00000000001398</v>
       </c>
       <c r="N167" s="1">
-        <v>-21267.5</v>
-      </c>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
+        <v>-27.916666666667201</v>
+      </c>
+      <c r="O167" s="2">
+        <v>2430</v>
+      </c>
+      <c r="P167" s="2">
+        <v>920.83333333333201</v>
+      </c>
       <c r="Q167" s="3">
-        <v>-21267.5</v>
+        <v>-976.66666666666595</v>
       </c>
       <c r="R167" s="3">
-        <v>-41670</v>
+        <v>-2395</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
@@ -10093,27 +10088,31 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="13">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K171" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L171" s="13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M171" s="1">
-        <v>-42160</v>
+        <v>-190</v>
       </c>
       <c r="N171" s="1">
-        <v>-21080</v>
-      </c>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
+        <v>-7.9166666666666599</v>
+      </c>
+      <c r="O171" s="2">
+        <v>2750</v>
+      </c>
+      <c r="P171" s="2">
+        <v>874.61538461538396</v>
+      </c>
       <c r="Q171" s="3">
-        <v>-21080</v>
+        <v>-1050.9090909090901</v>
       </c>
       <c r="R171" s="3">
-        <v>-41670</v>
+        <v>-2200</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -10289,27 +10288,31 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
       <c r="J175" s="13">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K175" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L175" s="13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M175" s="1">
-        <v>-42225</v>
+        <v>764.999999999956</v>
       </c>
       <c r="N175" s="1">
-        <v>-21112.5</v>
-      </c>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
+        <v>31.874999999998099</v>
+      </c>
+      <c r="O175" s="2">
+        <v>2870</v>
+      </c>
+      <c r="P175" s="2">
+        <v>891.15384615384198</v>
+      </c>
       <c r="Q175" s="3">
-        <v>-21112.5</v>
+        <v>-983.63636363636294</v>
       </c>
       <c r="R175" s="3">
-        <v>-41670</v>
+        <v>-2575</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
@@ -10387,27 +10390,31 @@
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="13">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="K177" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L177" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M177" s="1">
-        <v>-42535</v>
+        <v>-7035.00000000004</v>
       </c>
       <c r="N177" s="1">
-        <v>-21267.5</v>
-      </c>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
+        <v>-175.87500000000099</v>
+      </c>
+      <c r="O177" s="2">
+        <v>2430</v>
+      </c>
+      <c r="P177" s="2">
+        <v>772.49999999999704</v>
+      </c>
       <c r="Q177" s="3">
-        <v>-21267.5</v>
+        <v>-1124.25</v>
       </c>
       <c r="R177" s="3">
-        <v>-41670</v>
+        <v>-4845</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
@@ -10583,27 +10590,31 @@
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
       <c r="J181" s="13">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="K181" s="13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L181" s="13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="M181" s="1">
-        <v>-42160</v>
+        <v>-5100</v>
       </c>
       <c r="N181" s="1">
-        <v>-21080</v>
-      </c>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
+        <v>-127.5</v>
+      </c>
+      <c r="O181" s="2">
+        <v>2750</v>
+      </c>
+      <c r="P181" s="2">
+        <v>870</v>
+      </c>
       <c r="Q181" s="3">
-        <v>-21080</v>
+        <v>-1030</v>
       </c>
       <c r="R181" s="3">
-        <v>-41670</v>
+        <v>-4480</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -10779,27 +10790,31 @@
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
       <c r="J185" s="13">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="K185" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L185" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M185" s="1">
-        <v>-42225</v>
+        <v>-4140.00000000005</v>
       </c>
       <c r="N185" s="1">
-        <v>-21112.5</v>
-      </c>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
+        <v>-103.50000000000099</v>
+      </c>
+      <c r="O185" s="2">
+        <v>2870</v>
+      </c>
+      <c r="P185" s="2">
+        <v>868.74999999999704</v>
+      </c>
       <c r="Q185" s="3">
-        <v>-21112.5</v>
+        <v>-1075.75</v>
       </c>
       <c r="R185" s="3">
-        <v>-41670</v>
+        <v>-4440</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -10877,27 +10892,31 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
       <c r="J187" s="13">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="K187" s="13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L187" s="13">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M187" s="1">
-        <v>-42535</v>
+        <v>-985</v>
       </c>
       <c r="N187" s="1">
-        <v>-21267.5</v>
-      </c>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
+        <v>-18.584905660377299</v>
+      </c>
+      <c r="O187" s="2">
+        <v>3790</v>
+      </c>
+      <c r="P187" s="2">
+        <v>843.21428571428498</v>
+      </c>
       <c r="Q187" s="3">
-        <v>-21267.5</v>
+        <v>-983.8</v>
       </c>
       <c r="R187" s="3">
-        <v>-41670</v>
+        <v>-4845</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -11073,27 +11092,31 @@
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
       <c r="J191" s="13">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="K191" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L191" s="13">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M191" s="1">
-        <v>-42160</v>
+        <v>1145.00000000001</v>
       </c>
       <c r="N191" s="1">
-        <v>-21080</v>
-      </c>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
+        <v>21.603773584905898</v>
+      </c>
+      <c r="O191" s="2">
+        <v>4530</v>
+      </c>
+      <c r="P191" s="2">
+        <v>860.51724137931001</v>
+      </c>
       <c r="Q191" s="3">
-        <v>-21080</v>
+        <v>-992.08333333333201</v>
       </c>
       <c r="R191" s="3">
-        <v>-41670</v>
+        <v>-4480</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
@@ -11269,27 +11292,31 @@
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
       <c r="J195" s="13">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="K195" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L195" s="13">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M195" s="1">
-        <v>-42225</v>
+        <v>715</v>
       </c>
       <c r="N195" s="1">
-        <v>-21112.5</v>
-      </c>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
+        <v>13.4905660377358</v>
+      </c>
+      <c r="O195" s="2">
+        <v>3730</v>
+      </c>
+      <c r="P195" s="2">
+        <v>842.24137931034397</v>
+      </c>
       <c r="Q195" s="3">
-        <v>-21112.5</v>
+        <v>-987.91666666666595</v>
       </c>
       <c r="R195" s="3">
-        <v>-41670</v>
+        <v>-4440</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
@@ -11367,27 +11394,31 @@
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
       <c r="J197" s="13">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="K197" s="13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L197" s="13">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="M197" s="1">
-        <v>-42535</v>
+        <v>-1770.00000000004</v>
       </c>
       <c r="N197" s="1">
-        <v>-21267.5</v>
-      </c>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
+        <v>-27.6562500000006</v>
+      </c>
+      <c r="O197" s="2">
+        <v>3790</v>
+      </c>
+      <c r="P197" s="2">
+        <v>777.64705882352803</v>
+      </c>
       <c r="Q197" s="3">
-        <v>-21267.5</v>
+        <v>-940.33333333333303</v>
       </c>
       <c r="R197" s="3">
-        <v>-41670</v>
+        <v>-4845</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
@@ -11563,27 +11594,31 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="13">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="K201" s="13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L201" s="13">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="M201" s="1">
-        <v>-42160</v>
+        <v>-215.00000000001401</v>
       </c>
       <c r="N201" s="1">
-        <v>-21080</v>
-      </c>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
+        <v>-3.3593750000002198</v>
+      </c>
+      <c r="O201" s="2">
+        <v>4530</v>
+      </c>
+      <c r="P201" s="2">
+        <v>835.14705882352803</v>
+      </c>
       <c r="Q201" s="3">
-        <v>-21080</v>
+        <v>-953.66666666666595</v>
       </c>
       <c r="R201" s="3">
-        <v>-41670</v>
+        <v>-4480</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
@@ -11759,27 +11794,31 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="13">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="K205" s="13">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L205" s="13">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="M205" s="1">
-        <v>-42225</v>
+        <v>-535.00000000001398</v>
       </c>
       <c r="N205" s="1">
-        <v>-21112.5</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
+        <v>-8.3593750000002203</v>
+      </c>
+      <c r="O205" s="2">
+        <v>3730</v>
+      </c>
+      <c r="P205" s="2">
+        <v>803.85714285714198</v>
+      </c>
       <c r="Q205" s="3">
-        <v>-21112.5</v>
+        <v>-988.62068965517199</v>
       </c>
       <c r="R205" s="3">
-        <v>-41670</v>
+        <v>-4440</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
@@ -11857,27 +11896,31 @@
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
       <c r="J207" s="13">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="K207" s="13">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L207" s="13">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="M207" s="1">
-        <v>-42535</v>
+        <v>44.999999999970797</v>
       </c>
       <c r="N207" s="1">
-        <v>-21267.5</v>
-      </c>
-      <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
+        <v>0.56962025316418796</v>
+      </c>
+      <c r="O207" s="2">
+        <v>3790</v>
+      </c>
+      <c r="P207" s="2">
+        <v>806.07142857142799</v>
+      </c>
       <c r="Q207" s="3">
-        <v>-21267.5</v>
+        <v>-913.78378378378397</v>
       </c>
       <c r="R207" s="3">
-        <v>-41670</v>
+        <v>-4845</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
@@ -12053,27 +12096,31 @@
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
       <c r="J211" s="13">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="K211" s="13">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L211" s="13">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M211" s="1">
-        <v>-42160</v>
+        <v>1920.00000000002</v>
       </c>
       <c r="N211" s="1">
-        <v>-21080</v>
-      </c>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
+        <v>24.303797468354698</v>
+      </c>
+      <c r="O211" s="2">
+        <v>4530</v>
+      </c>
+      <c r="P211" s="2">
+        <v>883.292682926829</v>
+      </c>
       <c r="Q211" s="3">
-        <v>-21080</v>
+        <v>-902.49999999999898</v>
       </c>
       <c r="R211" s="3">
-        <v>-41670</v>
+        <v>-4480</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
@@ -12249,27 +12296,31 @@
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
       <c r="J215" s="13">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="K215" s="13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L215" s="13">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="M215" s="1">
-        <v>-42225</v>
+        <v>2380.00000000002</v>
       </c>
       <c r="N215" s="1">
-        <v>-21112.5</v>
-      </c>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
+        <v>30.126582278481301</v>
+      </c>
+      <c r="O215" s="2">
+        <v>3730</v>
+      </c>
+      <c r="P215" s="2">
+        <v>819.09090909090901</v>
+      </c>
       <c r="Q215" s="3">
-        <v>-21112.5</v>
+        <v>-961.71428571428498</v>
       </c>
       <c r="R215" s="3">
-        <v>-41670</v>
+        <v>-4440</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
@@ -12347,27 +12398,31 @@
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
       <c r="J217" s="13">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="K217" s="13">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L217" s="13">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="M217" s="1">
-        <v>-42535</v>
+        <v>-1589.99999999997</v>
       </c>
       <c r="N217" s="1">
-        <v>-21267.5</v>
-      </c>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
+        <v>-17.282608695651799</v>
+      </c>
+      <c r="O217" s="2">
+        <v>3790</v>
+      </c>
+      <c r="P217" s="2">
+        <v>793.22916666666697</v>
+      </c>
       <c r="Q217" s="3">
-        <v>-21267.5</v>
+        <v>-901.47727272727195</v>
       </c>
       <c r="R217" s="3">
-        <v>-41670</v>
+        <v>-4845</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
@@ -12543,27 +12598,31 @@
       <c r="H221" s="12"/>
       <c r="I221" s="12"/>
       <c r="J221" s="13">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="K221" s="13">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L221" s="13">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="M221" s="1">
-        <v>-42160</v>
+        <v>-1115.00000000004</v>
       </c>
       <c r="N221" s="1">
-        <v>-21080</v>
-      </c>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
+        <v>-12.119565217391701</v>
+      </c>
+      <c r="O221" s="2">
+        <v>4530</v>
+      </c>
+      <c r="P221" s="2">
+        <v>886.84782608695605</v>
+      </c>
       <c r="Q221" s="3">
-        <v>-21080</v>
+        <v>-911.08695652173901</v>
       </c>
       <c r="R221" s="3">
-        <v>-41670</v>
+        <v>-4480</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
@@ -12739,27 +12798,31 @@
       <c r="H225" s="12"/>
       <c r="I225" s="12"/>
       <c r="J225" s="13">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="K225" s="13">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L225" s="13">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="M225" s="1">
-        <v>-42225</v>
+        <v>594.99999999998499</v>
       </c>
       <c r="N225" s="1">
-        <v>-21112.5</v>
-      </c>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
+        <v>6.4673913043476601</v>
+      </c>
+      <c r="O225" s="2">
+        <v>3730</v>
+      </c>
+      <c r="P225" s="2">
+        <v>846.73469387755097</v>
+      </c>
       <c r="Q225" s="3">
-        <v>-21112.5</v>
+        <v>-951.04651162790697</v>
       </c>
       <c r="R225" s="3">
-        <v>-41670</v>
+        <v>-4440</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
@@ -14548,27 +14611,31 @@
         <v>250</v>
       </c>
       <c r="J258" s="13">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="K258" s="13">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L258" s="13">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="M258" s="1">
-        <v>-39139.517514233303</v>
+        <v>-17257.743509578799</v>
       </c>
       <c r="N258" s="1">
-        <v>-19569.7587571166</v>
-      </c>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
+        <v>-80.643661259714193</v>
+      </c>
+      <c r="O258" s="2">
+        <v>2635</v>
+      </c>
+      <c r="P258" s="2">
+        <v>287.90196454450501</v>
+      </c>
       <c r="Q258" s="3">
-        <v>-19569.7587571166</v>
+        <v>-343.04814683231803</v>
       </c>
       <c r="R258" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
@@ -14601,27 +14668,31 @@
         <v>350</v>
       </c>
       <c r="J259" s="13">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="K259" s="13">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="L259" s="13">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="M259" s="1">
-        <v>-39239.324519926602</v>
+        <v>-18170.5122133443</v>
       </c>
       <c r="N259" s="1">
-        <v>-19619.662259963301</v>
-      </c>
-      <c r="O259" s="2"/>
-      <c r="P259" s="2"/>
+        <v>-89.071138300707304</v>
+      </c>
+      <c r="O259" s="2">
+        <v>2635</v>
+      </c>
+      <c r="P259" s="2">
+        <v>343.78180406586398</v>
+      </c>
       <c r="Q259" s="3">
-        <v>-19619.662259963301</v>
+        <v>-380.00508317004198</v>
       </c>
       <c r="R259" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
@@ -14654,27 +14725,31 @@
         <v>450</v>
       </c>
       <c r="J260" s="13">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="K260" s="13">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L260" s="13">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="M260" s="1">
-        <v>-39160</v>
+        <v>-16510.887841456599</v>
       </c>
       <c r="N260" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
+        <v>-83.388322431599093</v>
+      </c>
+      <c r="O260" s="2">
+        <v>2635</v>
+      </c>
+      <c r="P260" s="2">
+        <v>400.59851989220101</v>
+      </c>
       <c r="Q260" s="3">
-        <v>-19580</v>
+        <v>-404.69051187345002</v>
       </c>
       <c r="R260" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
@@ -14707,27 +14782,31 @@
         <v>550</v>
       </c>
       <c r="J261" s="13">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="K261" s="13">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="L261" s="13">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="M261" s="1">
-        <v>-39160</v>
+        <v>-15454.2088067399</v>
       </c>
       <c r="N261" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O261" s="2"/>
-      <c r="P261" s="2"/>
+        <v>-81.337941088104898</v>
+      </c>
+      <c r="O261" s="2">
+        <v>2635</v>
+      </c>
+      <c r="P261" s="2">
+        <v>445.09386942963698</v>
+      </c>
       <c r="Q261" s="3">
-        <v>-19580</v>
+        <v>-432.292481433266</v>
       </c>
       <c r="R261" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
@@ -14760,27 +14839,31 @@
         <v>650</v>
       </c>
       <c r="J262" s="13">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="K262" s="13">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="L262" s="13">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="M262" s="1">
-        <v>-39160</v>
+        <v>-18954.005126225598</v>
       </c>
       <c r="N262" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O262" s="2"/>
-      <c r="P262" s="2"/>
+        <v>-100.819176203327</v>
+      </c>
+      <c r="O262" s="2">
+        <v>2635</v>
+      </c>
+      <c r="P262" s="2">
+        <v>469.38394208083099</v>
+      </c>
       <c r="Q262" s="3">
-        <v>-19580</v>
+        <v>-462.77419911414199</v>
       </c>
       <c r="R262" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
@@ -14813,27 +14896,31 @@
         <v>750</v>
       </c>
       <c r="J263" s="13">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="K263" s="13">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L263" s="13">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="M263" s="1">
-        <v>-39160</v>
+        <v>-17910.315647114399</v>
       </c>
       <c r="N263" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
+        <v>-95.777089022002599</v>
+      </c>
+      <c r="O263" s="2">
+        <v>2635</v>
+      </c>
+      <c r="P263" s="2">
+        <v>515.08279631828702</v>
+      </c>
       <c r="Q263" s="3">
-        <v>-19580</v>
+        <v>-495.80922632449301</v>
       </c>
       <c r="R263" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
@@ -14866,27 +14953,31 @@
         <v>250</v>
       </c>
       <c r="J264" s="13">
-        <v>2</v>
+        <v>342</v>
       </c>
       <c r="K264" s="13">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="L264" s="13">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="M264" s="1">
-        <v>-39139.517514233303</v>
+        <v>-16301.5632727088</v>
       </c>
       <c r="N264" s="1">
-        <v>-19569.7587571166</v>
-      </c>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
+        <v>-47.665389686283199</v>
+      </c>
+      <c r="O264" s="2">
+        <v>2515</v>
+      </c>
+      <c r="P264" s="2">
+        <v>285.598673644521</v>
+      </c>
       <c r="Q264" s="3">
-        <v>-19569.7587571166</v>
+        <v>-304.95215360488299</v>
       </c>
       <c r="R264" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
@@ -14919,27 +15010,31 @@
         <v>350</v>
       </c>
       <c r="J265" s="13">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="K265" s="13">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="L265" s="13">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="M265" s="1">
-        <v>-39239.324519926602</v>
+        <v>-18980.1582561547</v>
       </c>
       <c r="N265" s="1">
-        <v>-19619.662259963301</v>
-      </c>
-      <c r="O265" s="2"/>
-      <c r="P265" s="2"/>
+        <v>-62.848206146207801</v>
+      </c>
+      <c r="O265" s="2">
+        <v>2750</v>
+      </c>
+      <c r="P265" s="2">
+        <v>374.42443639212399</v>
+      </c>
       <c r="Q265" s="3">
-        <v>-19619.662259963301</v>
+        <v>-367.46510319538203</v>
       </c>
       <c r="R265" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
@@ -14972,27 +15067,31 @@
         <v>450</v>
       </c>
       <c r="J266" s="13">
-        <v>2</v>
+        <v>287</v>
       </c>
       <c r="K266" s="13">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="L266" s="13">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="M266" s="1">
-        <v>-39160</v>
+        <v>-24649.816869175698</v>
       </c>
       <c r="N266" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2"/>
+        <v>-85.887863655664702</v>
+      </c>
+      <c r="O266" s="2">
+        <v>2750</v>
+      </c>
+      <c r="P266" s="2">
+        <v>428.757410882523</v>
+      </c>
       <c r="Q266" s="3">
-        <v>-19580</v>
+        <v>-410.46528112009003</v>
       </c>
       <c r="R266" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
@@ -15025,27 +15124,31 @@
         <v>550</v>
       </c>
       <c r="J267" s="13">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="K267" s="13">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L267" s="13">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="M267" s="1">
-        <v>-39160</v>
+        <v>-24505.285630762599</v>
       </c>
       <c r="N267" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
+        <v>-90.425408231596506</v>
+      </c>
+      <c r="O267" s="2">
+        <v>2750</v>
+      </c>
+      <c r="P267" s="2">
+        <v>493.21383865673999</v>
+      </c>
       <c r="Q267" s="3">
-        <v>-19580</v>
+        <v>-448.25185126432598</v>
       </c>
       <c r="R267" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
@@ -15078,27 +15181,31 @@
         <v>650</v>
       </c>
       <c r="J268" s="13">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="K268" s="13">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L268" s="13">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="M268" s="1">
-        <v>-39160</v>
+        <v>-34321.096419049099</v>
       </c>
       <c r="N268" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
+        <v>-129.026678267101</v>
+      </c>
+      <c r="O268" s="2">
+        <v>2750</v>
+      </c>
+      <c r="P268" s="2">
+        <v>516.00531995377696</v>
+      </c>
       <c r="Q268" s="3">
-        <v>-19580</v>
+        <v>-493.28004196830398</v>
       </c>
       <c r="R268" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.25">
@@ -15131,27 +15238,31 @@
         <v>750</v>
       </c>
       <c r="J269" s="13">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="K269" s="13">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L269" s="13">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="M269" s="1">
-        <v>-39160</v>
+        <v>-32009.443097130901</v>
       </c>
       <c r="N269" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
+        <v>-124.067608903608</v>
+      </c>
+      <c r="O269" s="2">
+        <v>2750</v>
+      </c>
+      <c r="P269" s="2">
+        <v>549.05697821501496</v>
+      </c>
       <c r="Q269" s="3">
-        <v>-19580</v>
+        <v>-516.37948483163996</v>
       </c>
       <c r="R269" s="3">
-        <v>-38890</v>
+        <v>-2590</v>
       </c>
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.25">
@@ -15184,27 +15295,31 @@
         <v>250</v>
       </c>
       <c r="J270" s="13">
-        <v>2</v>
+        <v>423</v>
       </c>
       <c r="K270" s="13">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="L270" s="13">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="M270" s="1">
-        <v>-39139.517514233303</v>
+        <v>-14044.7142029971</v>
       </c>
       <c r="N270" s="1">
-        <v>-19569.7587571166</v>
-      </c>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
+        <v>-33.202634049638696</v>
+      </c>
+      <c r="O270" s="2">
+        <v>2610</v>
+      </c>
+      <c r="P270" s="2">
+        <v>293.784032457102</v>
+      </c>
       <c r="Q270" s="3">
-        <v>-19569.7587571166</v>
+        <v>-315.53473376470998</v>
       </c>
       <c r="R270" s="3">
-        <v>-38890</v>
+        <v>-2675</v>
       </c>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
@@ -15237,27 +15352,31 @@
         <v>350</v>
       </c>
       <c r="J271" s="13">
-        <v>2</v>
+        <v>362</v>
       </c>
       <c r="K271" s="13">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="L271" s="13">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="M271" s="1">
-        <v>-39239.324519926602</v>
+        <v>-20560.660546121198</v>
       </c>
       <c r="N271" s="1">
-        <v>-19619.662259963301</v>
-      </c>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
+        <v>-56.797404823539402</v>
+      </c>
+      <c r="O271" s="2">
+        <v>2620</v>
+      </c>
+      <c r="P271" s="2">
+        <v>384.94193779558202</v>
+      </c>
       <c r="Q271" s="3">
-        <v>-19619.662259963301</v>
+        <v>-376.53254805261798</v>
       </c>
       <c r="R271" s="3">
-        <v>-38890</v>
+        <v>-2505</v>
       </c>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
@@ -15290,27 +15409,31 @@
         <v>450</v>
       </c>
       <c r="J272" s="13">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="K272" s="13">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="L272" s="13">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="M272" s="1">
-        <v>-39160</v>
+        <v>-26941.273110572001</v>
       </c>
       <c r="N272" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
+        <v>-81.148412983650601</v>
+      </c>
+      <c r="O272" s="2">
+        <v>2525</v>
+      </c>
+      <c r="P272" s="2">
+        <v>457.54115999971299</v>
+      </c>
       <c r="Q272" s="3">
-        <v>-19580</v>
+        <v>-414.87317283188099</v>
       </c>
       <c r="R272" s="3">
-        <v>-38890</v>
+        <v>-2505</v>
       </c>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
@@ -15343,27 +15466,31 @@
         <v>550</v>
       </c>
       <c r="J273" s="13">
-        <v>2</v>
+        <v>314</v>
       </c>
       <c r="K273" s="13">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="L273" s="13">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="M273" s="1">
-        <v>-39160</v>
+        <v>-28783.684916041198</v>
       </c>
       <c r="N273" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O273" s="2"/>
-      <c r="P273" s="2"/>
+        <v>-91.667786356819093</v>
+      </c>
+      <c r="O273" s="2">
+        <v>2910</v>
+      </c>
+      <c r="P273" s="2">
+        <v>527.34475777738396</v>
+      </c>
       <c r="Q273" s="3">
-        <v>-19580</v>
+        <v>-454.32160009200902</v>
       </c>
       <c r="R273" s="3">
-        <v>-38890</v>
+        <v>-2505</v>
       </c>
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.25">
@@ -15396,27 +15523,31 @@
         <v>650</v>
       </c>
       <c r="J274" s="13">
-        <v>2</v>
+        <v>307</v>
       </c>
       <c r="K274" s="13">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L274" s="13">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="M274" s="1">
-        <v>-39160</v>
+        <v>-38358.169572839601</v>
       </c>
       <c r="N274" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O274" s="2"/>
-      <c r="P274" s="2"/>
+        <v>-124.94517776169199</v>
+      </c>
+      <c r="O274" s="2">
+        <v>2910</v>
+      </c>
+      <c r="P274" s="2">
+        <v>569.59756261641303</v>
+      </c>
       <c r="Q274" s="3">
-        <v>-19580</v>
+        <v>-507.294464131457</v>
       </c>
       <c r="R274" s="3">
-        <v>-38890</v>
+        <v>-2505</v>
       </c>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
@@ -15449,27 +15580,31 @@
         <v>750</v>
       </c>
       <c r="J275" s="13">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="K275" s="13">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="L275" s="13">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="M275" s="1">
-        <v>-39160</v>
+        <v>-37137.012266385304</v>
       </c>
       <c r="N275" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
+        <v>-123.79004088795099</v>
+      </c>
+      <c r="O275" s="2">
+        <v>2910</v>
+      </c>
+      <c r="P275" s="2">
+        <v>603.551778484024</v>
+      </c>
       <c r="Q275" s="3">
-        <v>-19580</v>
+        <v>-521.20361229738</v>
       </c>
       <c r="R275" s="3">
-        <v>-38890</v>
+        <v>-2505</v>
       </c>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
@@ -15502,27 +15637,31 @@
         <v>250</v>
       </c>
       <c r="J276" s="13">
-        <v>2</v>
+        <v>525</v>
       </c>
       <c r="K276" s="13">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="L276" s="13">
-        <v>2</v>
+        <v>283</v>
       </c>
       <c r="M276" s="1">
-        <v>-39139.517514233303</v>
+        <v>-17053.037412996899</v>
       </c>
       <c r="N276" s="1">
-        <v>-19569.7587571166</v>
-      </c>
-      <c r="O276" s="2"/>
-      <c r="P276" s="2"/>
+        <v>-32.481976024755902</v>
+      </c>
+      <c r="O276" s="2">
+        <v>2610</v>
+      </c>
+      <c r="P276" s="2">
+        <v>297.99024740818902</v>
+      </c>
       <c r="Q276" s="3">
-        <v>-19569.7587571166</v>
+        <v>-315.07659818296298</v>
       </c>
       <c r="R276" s="3">
-        <v>-38890</v>
+        <v>-2760</v>
       </c>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
@@ -15555,27 +15694,31 @@
         <v>350</v>
       </c>
       <c r="J277" s="13">
-        <v>2</v>
+        <v>441</v>
       </c>
       <c r="K277" s="13">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="L277" s="13">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="M277" s="1">
-        <v>-39239.324519926602</v>
+        <v>-22411.4557307051</v>
       </c>
       <c r="N277" s="1">
-        <v>-19619.662259963301</v>
-      </c>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
+        <v>-50.819627507267903</v>
+      </c>
+      <c r="O277" s="2">
+        <v>2635</v>
+      </c>
+      <c r="P277" s="2">
+        <v>403.51699474934702</v>
+      </c>
       <c r="Q277" s="3">
-        <v>-19619.662259963301</v>
+        <v>-388.42944957937698</v>
       </c>
       <c r="R277" s="3">
-        <v>-38890</v>
+        <v>-2565</v>
       </c>
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.25">
@@ -15608,27 +15751,31 @@
         <v>450</v>
       </c>
       <c r="J278" s="13">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="K278" s="13">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="L278" s="13">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="M278" s="1">
-        <v>-39160</v>
+        <v>-31298.950033927402</v>
       </c>
       <c r="N278" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O278" s="2"/>
-      <c r="P278" s="2"/>
+        <v>-78.247375084818501</v>
+      </c>
+      <c r="O278" s="2">
+        <v>2525</v>
+      </c>
+      <c r="P278" s="2">
+        <v>486.03461346720798</v>
+      </c>
       <c r="Q278" s="3">
-        <v>-19580</v>
+        <v>-424.09762613283499</v>
       </c>
       <c r="R278" s="3">
-        <v>-38890</v>
+        <v>-2565</v>
       </c>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.25">
@@ -15661,27 +15808,31 @@
         <v>550</v>
       </c>
       <c r="J279" s="13">
-        <v>2</v>
+        <v>366</v>
       </c>
       <c r="K279" s="13">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L279" s="13">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="M279" s="1">
-        <v>-39160</v>
+        <v>-28188.412409655</v>
       </c>
       <c r="N279" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O279" s="2"/>
-      <c r="P279" s="2"/>
+        <v>-77.017520244959201</v>
+      </c>
+      <c r="O279" s="2">
+        <v>2905</v>
+      </c>
+      <c r="P279" s="2">
+        <v>579.79223286104605</v>
+      </c>
       <c r="Q279" s="3">
-        <v>-19580</v>
+        <v>-465.39198295111902</v>
       </c>
       <c r="R279" s="3">
-        <v>-38890</v>
+        <v>-2565</v>
       </c>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.25">
@@ -15714,27 +15865,31 @@
         <v>650</v>
       </c>
       <c r="J280" s="13">
-        <v>2</v>
+        <v>355</v>
       </c>
       <c r="K280" s="13">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="L280" s="13">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="M280" s="1">
-        <v>-39160</v>
+        <v>-35755.5980302155</v>
       </c>
       <c r="N280" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O280" s="2"/>
-      <c r="P280" s="2"/>
+        <v>-100.719994451311</v>
+      </c>
+      <c r="O280" s="2">
+        <v>2610</v>
+      </c>
+      <c r="P280" s="2">
+        <v>637.83371906452101</v>
+      </c>
       <c r="Q280" s="3">
-        <v>-19580</v>
+        <v>-512.10736996232299</v>
       </c>
       <c r="R280" s="3">
-        <v>-38890</v>
+        <v>-2565</v>
       </c>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.25">
@@ -15767,27 +15922,31 @@
         <v>750</v>
       </c>
       <c r="J281" s="13">
-        <v>2</v>
+        <v>343</v>
       </c>
       <c r="K281" s="13">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="L281" s="13">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="M281" s="1">
-        <v>-39160</v>
+        <v>-36274.8976379042</v>
       </c>
       <c r="N281" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O281" s="2"/>
-      <c r="P281" s="2"/>
+        <v>-105.75771906094501</v>
+      </c>
+      <c r="O281" s="2">
+        <v>2620</v>
+      </c>
+      <c r="P281" s="2">
+        <v>673.40313416990602</v>
+      </c>
       <c r="Q281" s="3">
-        <v>-19580</v>
+        <v>-535.88271496213895</v>
       </c>
       <c r="R281" s="3">
-        <v>-38890</v>
+        <v>-2565</v>
       </c>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.25">
@@ -15820,27 +15979,31 @@
         <v>250</v>
       </c>
       <c r="J282" s="13">
-        <v>2</v>
+        <v>627</v>
       </c>
       <c r="K282" s="13">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="L282" s="13">
-        <v>2</v>
+        <v>341</v>
       </c>
       <c r="M282" s="1">
-        <v>-39139.517514233303</v>
+        <v>-20996.8246266278</v>
       </c>
       <c r="N282" s="1">
-        <v>-19569.7587571166</v>
-      </c>
-      <c r="O282" s="2"/>
-      <c r="P282" s="2"/>
+        <v>-33.487758575164001</v>
+      </c>
+      <c r="O282" s="2">
+        <v>2610</v>
+      </c>
+      <c r="P282" s="2">
+        <v>313.330901835605</v>
+      </c>
       <c r="Q282" s="3">
-        <v>-19569.7587571166</v>
+        <v>-324.36792537129298</v>
       </c>
       <c r="R282" s="3">
-        <v>-38890</v>
+        <v>-3025</v>
       </c>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.25">
@@ -15873,27 +16036,31 @@
         <v>350</v>
       </c>
       <c r="J283" s="13">
-        <v>2</v>
+        <v>513</v>
       </c>
       <c r="K283" s="13">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="L283" s="13">
-        <v>2</v>
+        <v>295</v>
       </c>
       <c r="M283" s="1">
-        <v>-39239.324519926602</v>
+        <v>-23612.437279072699</v>
       </c>
       <c r="N283" s="1">
-        <v>-19619.662259963301</v>
-      </c>
-      <c r="O283" s="2"/>
-      <c r="P283" s="2"/>
+        <v>-46.028142844196402</v>
+      </c>
+      <c r="O283" s="2">
+        <v>2635</v>
+      </c>
+      <c r="P283" s="2">
+        <v>424.99008110848598</v>
+      </c>
       <c r="Q283" s="3">
-        <v>-19619.662259963301</v>
+        <v>-394.10262698550099</v>
       </c>
       <c r="R283" s="3">
-        <v>-38890</v>
+        <v>-3025</v>
       </c>
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.25">
@@ -15926,27 +16093,31 @@
         <v>450</v>
       </c>
       <c r="J284" s="13">
-        <v>2</v>
+        <v>459</v>
       </c>
       <c r="K284" s="13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L284" s="13">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="M284" s="1">
-        <v>-39160</v>
+        <v>-29646.163380096699</v>
       </c>
       <c r="N284" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O284" s="2"/>
-      <c r="P284" s="2"/>
+        <v>-64.588591242040906</v>
+      </c>
+      <c r="O284" s="2">
+        <v>2610</v>
+      </c>
+      <c r="P284" s="2">
+        <v>506.44240416344599</v>
+      </c>
       <c r="Q284" s="3">
-        <v>-19580</v>
+        <v>-432.99568505203302</v>
       </c>
       <c r="R284" s="3">
-        <v>-38890</v>
+        <v>-3025</v>
       </c>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.25">
@@ -15979,27 +16150,31 @@
         <v>550</v>
       </c>
       <c r="J285" s="13">
-        <v>2</v>
+        <v>421</v>
       </c>
       <c r="K285" s="13">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L285" s="13">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="M285" s="1">
-        <v>-39160</v>
+        <v>-28769.224494987</v>
       </c>
       <c r="N285" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O285" s="2"/>
-      <c r="P285" s="2"/>
+        <v>-68.335450106857706</v>
+      </c>
+      <c r="O285" s="2">
+        <v>2915</v>
+      </c>
+      <c r="P285" s="2">
+        <v>598.00419099296198</v>
+      </c>
       <c r="Q285" s="3">
-        <v>-19580</v>
+        <v>-476.81952127916099</v>
       </c>
       <c r="R285" s="3">
-        <v>-38890</v>
+        <v>-3025</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
@@ -16032,27 +16207,31 @@
         <v>650</v>
       </c>
       <c r="J286" s="13">
-        <v>2</v>
+        <v>409</v>
       </c>
       <c r="K286" s="13">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="L286" s="13">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="M286" s="1">
-        <v>-39160</v>
+        <v>-36662.484076591398</v>
       </c>
       <c r="N286" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O286" s="2"/>
-      <c r="P286" s="2"/>
+        <v>-89.639325370639298</v>
+      </c>
+      <c r="O286" s="2">
+        <v>2635</v>
+      </c>
+      <c r="P286" s="2">
+        <v>649.62729500781199</v>
+      </c>
       <c r="Q286" s="3">
-        <v>-19580</v>
+        <v>-522.31087450686505</v>
       </c>
       <c r="R286" s="3">
-        <v>-38890</v>
+        <v>-3025</v>
       </c>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.25">
@@ -16085,27 +16264,31 @@
         <v>750</v>
       </c>
       <c r="J287" s="13">
-        <v>2</v>
+        <v>396</v>
       </c>
       <c r="K287" s="13">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="L287" s="13">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="M287" s="1">
-        <v>-39160</v>
+        <v>-35865.571189535302</v>
       </c>
       <c r="N287" s="1">
-        <v>-19580</v>
-      </c>
-      <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
+        <v>-90.569624215998402</v>
+      </c>
+      <c r="O287" s="2">
+        <v>2610</v>
+      </c>
+      <c r="P287" s="2">
+        <v>710.598221905473</v>
+      </c>
       <c r="Q287" s="3">
-        <v>-19580</v>
+        <v>-548.37982199969599</v>
       </c>
       <c r="R287" s="3">
-        <v>-38890</v>
+        <v>-3025</v>
       </c>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.25">
@@ -16178,39 +16361,39 @@
       <c r="R290" s="3"/>
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A291" s="15">
+      <c r="A291" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>288</v>
       </c>
-      <c r="B291" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C291" s="16" t="s">
+      <c r="B291" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C291" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E291" s="16" t="s">
+      <c r="E291" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F291" s="16" t="s">
+      <c r="F291" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G291" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H291" s="16"/>
-      <c r="I291" s="16">
+      <c r="H291" s="12"/>
+      <c r="I291" s="12">
         <v>250</v>
       </c>
-      <c r="J291" s="17">
+      <c r="J291" s="13">
         <v>2</v>
       </c>
-      <c r="K291" s="17">
+      <c r="K291" s="13">
         <v>1</v>
       </c>
-      <c r="L291" s="17">
+      <c r="L291" s="13">
         <v>1</v>
       </c>
       <c r="M291" s="1">
@@ -16233,39 +16416,39 @@
       </c>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A292" s="15">
+      <c r="A292" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>289</v>
       </c>
-      <c r="B292" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C292" s="16" t="s">
+      <c r="B292" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C292" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E292" s="16" t="s">
+      <c r="E292" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F292" s="16" t="s">
+      <c r="F292" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G292" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H292" s="16"/>
-      <c r="I292" s="16">
+      <c r="H292" s="12"/>
+      <c r="I292" s="12">
         <v>450</v>
       </c>
-      <c r="J292" s="17">
+      <c r="J292" s="13">
         <v>2</v>
       </c>
-      <c r="K292" s="17">
+      <c r="K292" s="13">
         <v>1</v>
       </c>
-      <c r="L292" s="17">
+      <c r="L292" s="13">
         <v>1</v>
       </c>
       <c r="M292" s="1">
@@ -16288,39 +16471,39 @@
       </c>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A293" s="15">
+      <c r="A293" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>290</v>
       </c>
-      <c r="B293" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C293" s="16" t="s">
+      <c r="B293" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E293" s="16" t="s">
+      <c r="E293" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F293" s="16" t="s">
+      <c r="F293" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G293" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H293" s="16"/>
-      <c r="I293" s="16">
+      <c r="H293" s="12"/>
+      <c r="I293" s="12">
         <v>650</v>
       </c>
-      <c r="J293" s="17">
+      <c r="J293" s="13">
         <v>2</v>
       </c>
-      <c r="K293" s="17">
+      <c r="K293" s="13">
         <v>1</v>
       </c>
-      <c r="L293" s="17">
+      <c r="L293" s="13">
         <v>1</v>
       </c>
       <c r="M293" s="1">
@@ -16343,39 +16526,39 @@
       </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A294" s="15">
+      <c r="A294" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>291</v>
       </c>
-      <c r="B294" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C294" s="16" t="s">
+      <c r="B294" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C294" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E294" s="16" t="s">
+      <c r="E294" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F294" s="16" t="s">
+      <c r="F294" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G294" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H294" s="16"/>
-      <c r="I294" s="16">
+      <c r="H294" s="12"/>
+      <c r="I294" s="12">
         <v>250</v>
       </c>
-      <c r="J294" s="17">
+      <c r="J294" s="13">
         <v>26</v>
       </c>
-      <c r="K294" s="17">
+      <c r="K294" s="13">
         <v>9</v>
       </c>
-      <c r="L294" s="17">
+      <c r="L294" s="13">
         <v>17</v>
       </c>
       <c r="M294" s="1">
@@ -16398,39 +16581,39 @@
       </c>
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A295" s="15">
+      <c r="A295" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>292</v>
       </c>
-      <c r="B295" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C295" s="16" t="s">
+      <c r="B295" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C295" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E295" s="16" t="s">
+      <c r="E295" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F295" s="16" t="s">
+      <c r="F295" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G295" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H295" s="16"/>
-      <c r="I295" s="16">
+      <c r="H295" s="12"/>
+      <c r="I295" s="12">
         <v>450</v>
       </c>
-      <c r="J295" s="17">
+      <c r="J295" s="13">
         <v>23</v>
       </c>
-      <c r="K295" s="17">
+      <c r="K295" s="13">
         <v>11</v>
       </c>
-      <c r="L295" s="17">
+      <c r="L295" s="13">
         <v>12</v>
       </c>
       <c r="M295" s="1">
@@ -16453,39 +16636,39 @@
       </c>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A296" s="15">
+      <c r="A296" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>293</v>
       </c>
-      <c r="B296" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C296" s="16" t="s">
+      <c r="B296" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C296" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E296" s="16" t="s">
+      <c r="E296" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F296" s="16" t="s">
+      <c r="F296" s="12" t="s">
         <v>93</v>
       </c>
       <c r="G296" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H296" s="16"/>
-      <c r="I296" s="16">
+      <c r="H296" s="12"/>
+      <c r="I296" s="12">
         <v>650</v>
       </c>
-      <c r="J296" s="17">
+      <c r="J296" s="13">
         <v>22</v>
       </c>
-      <c r="K296" s="17">
+      <c r="K296" s="13">
         <v>11</v>
       </c>
-      <c r="L296" s="17">
+      <c r="L296" s="13">
         <v>11</v>
       </c>
       <c r="M296" s="1">
@@ -16508,39 +16691,39 @@
       </c>
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A297" s="15">
+      <c r="A297" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>294</v>
       </c>
-      <c r="B297" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C297" s="16" t="s">
+      <c r="B297" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E297" s="16" t="s">
+      <c r="E297" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F297" s="16" t="s">
+      <c r="F297" s="12" t="s">
         <v>94</v>
       </c>
       <c r="G297" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H297" s="16"/>
-      <c r="I297" s="16">
+      <c r="H297" s="12"/>
+      <c r="I297" s="12">
         <v>250</v>
       </c>
-      <c r="J297" s="17">
+      <c r="J297" s="13">
         <v>77</v>
       </c>
-      <c r="K297" s="17">
+      <c r="K297" s="13">
         <v>24</v>
       </c>
-      <c r="L297" s="17">
+      <c r="L297" s="13">
         <v>53</v>
       </c>
       <c r="M297" s="1">
@@ -16563,39 +16746,39 @@
       </c>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A298" s="15">
+      <c r="A298" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>295</v>
       </c>
-      <c r="B298" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C298" s="16" t="s">
+      <c r="B298" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E298" s="16" t="s">
+      <c r="E298" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F298" s="16" t="s">
+      <c r="F298" s="12" t="s">
         <v>94</v>
       </c>
       <c r="G298" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H298" s="16"/>
-      <c r="I298" s="16">
+      <c r="H298" s="12"/>
+      <c r="I298" s="12">
         <v>450</v>
       </c>
-      <c r="J298" s="17">
+      <c r="J298" s="13">
         <v>67</v>
       </c>
-      <c r="K298" s="17">
+      <c r="K298" s="13">
         <v>30</v>
       </c>
-      <c r="L298" s="17">
+      <c r="L298" s="13">
         <v>37</v>
       </c>
       <c r="M298" s="1">
@@ -16618,39 +16801,39 @@
       </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A299" s="15">
+      <c r="A299" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>296</v>
       </c>
-      <c r="B299" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C299" s="16" t="s">
+      <c r="B299" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E299" s="16" t="s">
+      <c r="E299" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F299" s="16" t="s">
+      <c r="F299" s="12" t="s">
         <v>94</v>
       </c>
       <c r="G299" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H299" s="16"/>
-      <c r="I299" s="16">
+      <c r="H299" s="12"/>
+      <c r="I299" s="12">
         <v>650</v>
       </c>
-      <c r="J299" s="17">
+      <c r="J299" s="13">
         <v>66</v>
       </c>
-      <c r="K299" s="17">
+      <c r="K299" s="13">
         <v>31</v>
       </c>
-      <c r="L299" s="17">
+      <c r="L299" s="13">
         <v>35</v>
       </c>
       <c r="M299" s="1">
@@ -16673,39 +16856,39 @@
       </c>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A300" s="15">
+      <c r="A300" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>297</v>
       </c>
-      <c r="B300" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C300" s="16" t="s">
+      <c r="B300" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C300" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E300" s="16" t="s">
+      <c r="E300" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F300" s="16" t="s">
+      <c r="F300" s="12" t="s">
         <v>95</v>
       </c>
       <c r="G300" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H300" s="16"/>
-      <c r="I300" s="16">
+      <c r="H300" s="12"/>
+      <c r="I300" s="12">
         <v>250</v>
       </c>
-      <c r="J300" s="17">
+      <c r="J300" s="13">
         <v>152</v>
       </c>
-      <c r="K300" s="17">
+      <c r="K300" s="13">
         <v>49</v>
       </c>
-      <c r="L300" s="17">
+      <c r="L300" s="13">
         <v>103</v>
       </c>
       <c r="M300" s="1">
@@ -16728,39 +16911,39 @@
       </c>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A301" s="15">
+      <c r="A301" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>298</v>
       </c>
-      <c r="B301" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C301" s="16" t="s">
+      <c r="B301" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E301" s="16" t="s">
+      <c r="E301" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F301" s="16" t="s">
+      <c r="F301" s="12" t="s">
         <v>95</v>
       </c>
       <c r="G301" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H301" s="16"/>
-      <c r="I301" s="16">
+      <c r="H301" s="12"/>
+      <c r="I301" s="12">
         <v>450</v>
       </c>
-      <c r="J301" s="17">
+      <c r="J301" s="13">
         <v>128</v>
       </c>
-      <c r="K301" s="17">
+      <c r="K301" s="13">
         <v>56</v>
       </c>
-      <c r="L301" s="17">
+      <c r="L301" s="13">
         <v>72</v>
       </c>
       <c r="M301" s="1">
@@ -16783,39 +16966,39 @@
       </c>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A302" s="15">
+      <c r="A302" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>299</v>
       </c>
-      <c r="B302" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C302" s="16" t="s">
+      <c r="B302" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C302" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D302" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E302" s="16" t="s">
+      <c r="E302" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F302" s="16" t="s">
+      <c r="F302" s="12" t="s">
         <v>95</v>
       </c>
       <c r="G302" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H302" s="16"/>
-      <c r="I302" s="16">
+      <c r="H302" s="12"/>
+      <c r="I302" s="12">
         <v>650</v>
       </c>
-      <c r="J302" s="17">
+      <c r="J302" s="13">
         <v>123</v>
       </c>
-      <c r="K302" s="17">
+      <c r="K302" s="13">
         <v>59</v>
       </c>
-      <c r="L302" s="17">
+      <c r="L302" s="13">
         <v>64</v>
       </c>
       <c r="M302" s="1">
@@ -16838,39 +17021,39 @@
       </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A303" s="15">
+      <c r="A303" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>300</v>
       </c>
-      <c r="B303" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C303" s="16" t="s">
+      <c r="B303" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C303" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D303" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E303" s="16" t="s">
+      <c r="E303" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F303" s="16" t="s">
+      <c r="F303" s="12" t="s">
         <v>96</v>
       </c>
       <c r="G303" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H303" s="16"/>
-      <c r="I303" s="16">
+      <c r="H303" s="12"/>
+      <c r="I303" s="12">
         <v>250</v>
       </c>
-      <c r="J303" s="17">
+      <c r="J303" s="13">
         <v>305</v>
       </c>
-      <c r="K303" s="17">
+      <c r="K303" s="13">
         <v>93</v>
       </c>
-      <c r="L303" s="17">
+      <c r="L303" s="13">
         <v>212</v>
       </c>
       <c r="M303" s="1">
@@ -16893,39 +17076,39 @@
       </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A304" s="15">
+      <c r="A304" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>301</v>
       </c>
-      <c r="B304" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C304" s="16" t="s">
+      <c r="B304" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C304" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D304" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E304" s="16" t="s">
+      <c r="E304" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F304" s="16" t="s">
+      <c r="F304" s="12" t="s">
         <v>96</v>
       </c>
       <c r="G304" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H304" s="16"/>
-      <c r="I304" s="16">
+      <c r="H304" s="12"/>
+      <c r="I304" s="12">
         <v>450</v>
       </c>
-      <c r="J304" s="17">
+      <c r="J304" s="13">
         <v>266</v>
       </c>
-      <c r="K304" s="17">
+      <c r="K304" s="13">
         <v>105</v>
       </c>
-      <c r="L304" s="17">
+      <c r="L304" s="13">
         <v>161</v>
       </c>
       <c r="M304" s="1">
@@ -16948,39 +17131,39 @@
       </c>
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A305" s="15">
+      <c r="A305" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>302</v>
       </c>
-      <c r="B305" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C305" s="16" t="s">
+      <c r="B305" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C305" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D305" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E305" s="16" t="s">
+      <c r="E305" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F305" s="16" t="s">
+      <c r="F305" s="12" t="s">
         <v>96</v>
       </c>
       <c r="G305" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H305" s="16"/>
-      <c r="I305" s="16">
+      <c r="H305" s="12"/>
+      <c r="I305" s="12">
         <v>650</v>
       </c>
-      <c r="J305" s="17">
+      <c r="J305" s="13">
         <v>250</v>
       </c>
-      <c r="K305" s="17">
+      <c r="K305" s="13">
         <v>110</v>
       </c>
-      <c r="L305" s="17">
+      <c r="L305" s="13">
         <v>140</v>
       </c>
       <c r="M305" s="1">
@@ -17003,784 +17186,828 @@
       </c>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A306" s="15">
+      <c r="A306" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>303</v>
       </c>
-      <c r="B306" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C306" s="16" t="s">
+      <c r="B306" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C306" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D306" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E306" s="16" t="s">
+      <c r="E306" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F306" s="16" t="s">
+      <c r="F306" s="12" t="s">
         <v>97</v>
       </c>
       <c r="G306" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H306" s="16"/>
-      <c r="I306" s="16">
+      <c r="H306" s="12"/>
+      <c r="I306" s="12">
         <v>250</v>
       </c>
-      <c r="J306" s="17">
+      <c r="J306" s="13">
+        <v>3</v>
+      </c>
+      <c r="K306" s="13">
+        <v>1</v>
+      </c>
+      <c r="L306" s="13">
         <v>2</v>
       </c>
-      <c r="K306" s="17">
-        <v>0</v>
-      </c>
-      <c r="L306" s="17">
-        <v>2</v>
-      </c>
       <c r="M306" s="1">
-        <v>-15229.373286329799</v>
+        <v>296.13537043245702</v>
       </c>
       <c r="N306" s="1">
-        <v>-7614.6866431648996</v>
-      </c>
-      <c r="O306" s="2"/>
-      <c r="P306" s="2"/>
+        <v>98.711790144152403</v>
+      </c>
+      <c r="O306" s="2">
+        <v>795</v>
+      </c>
+      <c r="P306" s="2">
+        <v>795</v>
+      </c>
       <c r="Q306" s="3">
-        <v>-7614.6866431648996</v>
+        <v>-249.43231478377101</v>
       </c>
       <c r="R306" s="3">
-        <v>-14980</v>
+        <v>-249.491343237721</v>
       </c>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A307" s="15">
+      <c r="A307" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>304</v>
       </c>
-      <c r="B307" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C307" s="16" t="s">
+      <c r="B307" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D307" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E307" s="16" t="s">
+      <c r="E307" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F307" s="16" t="s">
+      <c r="F307" s="12" t="s">
         <v>97</v>
       </c>
       <c r="G307" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H307" s="16"/>
-      <c r="I307" s="16">
+      <c r="H307" s="12"/>
+      <c r="I307" s="12">
         <v>450</v>
       </c>
-      <c r="J307" s="17">
+      <c r="J307" s="13">
+        <v>3</v>
+      </c>
+      <c r="K307" s="13">
+        <v>1</v>
+      </c>
+      <c r="L307" s="13">
         <v>2</v>
       </c>
-      <c r="K307" s="17">
-        <v>0</v>
-      </c>
-      <c r="L307" s="17">
-        <v>2</v>
-      </c>
       <c r="M307" s="1">
-        <v>-15428.8719153936</v>
+        <v>231.128084606345</v>
       </c>
       <c r="N307" s="1">
-        <v>-7714.43595769682</v>
-      </c>
-      <c r="O307" s="2"/>
-      <c r="P307" s="2"/>
+        <v>77.042694868781794</v>
+      </c>
+      <c r="O307" s="2">
+        <v>795</v>
+      </c>
+      <c r="P307" s="2">
+        <v>795</v>
+      </c>
       <c r="Q307" s="3">
-        <v>-7714.43595769682</v>
+        <v>-281.93595769682702</v>
       </c>
       <c r="R307" s="3">
-        <v>-14980</v>
+        <v>-448.87191539366898</v>
       </c>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A308" s="15">
+      <c r="A308" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>305</v>
       </c>
-      <c r="B308" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C308" s="16" t="s">
+      <c r="B308" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D308" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E308" s="16" t="s">
+      <c r="E308" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F308" s="16" t="s">
+      <c r="F308" s="12" t="s">
         <v>97</v>
       </c>
       <c r="G308" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H308" s="16"/>
-      <c r="I308" s="16">
+      <c r="H308" s="12"/>
+      <c r="I308" s="12">
         <v>650</v>
       </c>
-      <c r="J308" s="17">
+      <c r="J308" s="13">
+        <v>3</v>
+      </c>
+      <c r="K308" s="13">
+        <v>1</v>
+      </c>
+      <c r="L308" s="13">
         <v>2</v>
       </c>
-      <c r="K308" s="17">
-        <v>0</v>
-      </c>
-      <c r="L308" s="17">
-        <v>2</v>
-      </c>
       <c r="M308" s="1">
-        <v>-15295</v>
+        <v>364.99999999996999</v>
       </c>
       <c r="N308" s="1">
-        <v>-7647.5</v>
-      </c>
-      <c r="O308" s="2"/>
-      <c r="P308" s="2"/>
+        <v>121.666666666656</v>
+      </c>
+      <c r="O308" s="2">
+        <v>795</v>
+      </c>
+      <c r="P308" s="2">
+        <v>795</v>
+      </c>
       <c r="Q308" s="3">
-        <v>-7647.5</v>
+        <v>-215.00000000001401</v>
       </c>
       <c r="R308" s="3">
-        <v>-14980</v>
+        <v>-315.00000000001398</v>
       </c>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A309" s="15">
+      <c r="A309" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>306</v>
       </c>
-      <c r="B309" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C309" s="16" t="s">
+      <c r="B309" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C309" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D309" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E309" s="16" t="s">
+      <c r="E309" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F309" s="16" t="s">
+      <c r="F309" s="12" t="s">
         <v>98</v>
       </c>
       <c r="G309" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H309" s="16"/>
-      <c r="I309" s="16">
+      <c r="H309" s="12"/>
+      <c r="I309" s="12">
         <v>250</v>
       </c>
-      <c r="J309" s="17">
-        <v>2</v>
-      </c>
-      <c r="K309" s="17">
-        <v>0</v>
-      </c>
-      <c r="L309" s="17">
-        <v>2</v>
+      <c r="J309" s="13">
+        <v>27</v>
+      </c>
+      <c r="K309" s="13">
+        <v>6</v>
+      </c>
+      <c r="L309" s="13">
+        <v>21</v>
       </c>
       <c r="M309" s="1">
-        <v>-20234.8059957523</v>
+        <v>505.65617793574302</v>
       </c>
       <c r="N309" s="1">
-        <v>-10117.402997876099</v>
-      </c>
-      <c r="O309" s="2"/>
-      <c r="P309" s="2"/>
+        <v>18.728006590212701</v>
+      </c>
+      <c r="O309" s="2">
+        <v>1620</v>
+      </c>
+      <c r="P309" s="2">
+        <v>885.83333333333496</v>
+      </c>
       <c r="Q309" s="3">
-        <v>-10117.402997876099</v>
+        <v>-229.016372479251</v>
       </c>
       <c r="R309" s="3">
-        <v>-19985</v>
+        <v>-315</v>
       </c>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A310" s="15">
+      <c r="A310" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>307</v>
       </c>
-      <c r="B310" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C310" s="16" t="s">
+      <c r="B310" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C310" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D310" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E310" s="16" t="s">
+      <c r="E310" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F310" s="16" t="s">
+      <c r="F310" s="12" t="s">
         <v>98</v>
       </c>
       <c r="G310" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H310" s="16"/>
-      <c r="I310" s="16">
+      <c r="H310" s="12"/>
+      <c r="I310" s="12">
         <v>450</v>
       </c>
-      <c r="J310" s="17">
-        <v>2</v>
-      </c>
-      <c r="K310" s="17">
-        <v>0</v>
-      </c>
-      <c r="L310" s="17">
-        <v>2</v>
+      <c r="J310" s="13">
+        <v>24</v>
+      </c>
+      <c r="K310" s="13">
+        <v>7</v>
+      </c>
+      <c r="L310" s="13">
+        <v>17</v>
       </c>
       <c r="M310" s="1">
-        <v>-20434.650792354099</v>
+        <v>-250.74815392591699</v>
       </c>
       <c r="N310" s="1">
-        <v>-10217.325396177001</v>
-      </c>
-      <c r="O310" s="2"/>
-      <c r="P310" s="2"/>
+        <v>-10.4478397469132</v>
+      </c>
+      <c r="O310" s="2">
+        <v>1620</v>
+      </c>
+      <c r="P310" s="2">
+        <v>851.42857142857099</v>
+      </c>
       <c r="Q310" s="3">
-        <v>-10217.325396177001</v>
+        <v>-365.338126701524</v>
       </c>
       <c r="R310" s="3">
-        <v>-19985</v>
+        <v>-451.321129436153</v>
       </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A311" s="15">
+      <c r="A311" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>308</v>
       </c>
-      <c r="B311" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C311" s="16" t="s">
+      <c r="B311" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C311" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D311" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E311" s="16" t="s">
+      <c r="E311" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F311" s="16" t="s">
+      <c r="F311" s="12" t="s">
         <v>98</v>
       </c>
       <c r="G311" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H311" s="16"/>
-      <c r="I311" s="16">
+      <c r="H311" s="12"/>
+      <c r="I311" s="12">
         <v>650</v>
       </c>
-      <c r="J311" s="17">
-        <v>2</v>
-      </c>
-      <c r="K311" s="17">
-        <v>0</v>
-      </c>
-      <c r="L311" s="17">
-        <v>2</v>
+      <c r="J311" s="13">
+        <v>24</v>
+      </c>
+      <c r="K311" s="13">
+        <v>8</v>
+      </c>
+      <c r="L311" s="13">
+        <v>16</v>
       </c>
       <c r="M311" s="1">
-        <v>-20634.495588956001</v>
+        <v>-1268.3681732566599</v>
       </c>
       <c r="N311" s="1">
-        <v>-10317.247794478</v>
-      </c>
-      <c r="O311" s="2"/>
-      <c r="P311" s="2"/>
+        <v>-52.848673885694197</v>
+      </c>
+      <c r="O311" s="2">
+        <v>1619.99999999998</v>
+      </c>
+      <c r="P311" s="2">
+        <v>795</v>
+      </c>
       <c r="Q311" s="3">
-        <v>-10317.247794478</v>
+        <v>-476.77301082854098</v>
       </c>
       <c r="R311" s="3">
-        <v>-19985</v>
+        <v>-651.90829807442697</v>
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A312" s="15">
+      <c r="A312" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>309</v>
       </c>
-      <c r="B312" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C312" s="16" t="s">
+      <c r="B312" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C312" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D312" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E312" s="16" t="s">
+      <c r="E312" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F312" s="16" t="s">
+      <c r="F312" s="12" t="s">
         <v>99</v>
       </c>
       <c r="G312" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H312" s="16"/>
-      <c r="I312" s="16">
+      <c r="H312" s="12"/>
+      <c r="I312" s="12">
         <v>250</v>
       </c>
-      <c r="J312" s="17">
-        <v>2</v>
-      </c>
-      <c r="K312" s="17">
-        <v>0</v>
-      </c>
-      <c r="L312" s="17">
-        <v>2</v>
+      <c r="J312" s="13">
+        <v>79</v>
+      </c>
+      <c r="K312" s="13">
+        <v>20</v>
+      </c>
+      <c r="L312" s="13">
+        <v>59</v>
       </c>
       <c r="M312" s="1">
-        <v>-40739.668971605097</v>
+        <v>-919.97315553491296</v>
       </c>
       <c r="N312" s="1">
-        <v>-20369.834485802501</v>
-      </c>
-      <c r="O312" s="2"/>
-      <c r="P312" s="2"/>
+        <v>-11.645229816897601</v>
+      </c>
+      <c r="O312" s="2">
+        <v>1704.99999999998</v>
+      </c>
+      <c r="P312" s="2">
+        <v>670.74999999999898</v>
+      </c>
       <c r="Q312" s="3">
-        <v>-20369.834485802501</v>
+        <v>-242.96564670398101</v>
       </c>
       <c r="R312" s="3">
-        <v>-40490</v>
+        <v>-395</v>
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A313" s="15">
+      <c r="A313" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>310</v>
       </c>
-      <c r="B313" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C313" s="16" t="s">
+      <c r="B313" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C313" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D313" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E313" s="16" t="s">
+      <c r="E313" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F313" s="16" t="s">
+      <c r="F313" s="12" t="s">
         <v>99</v>
       </c>
       <c r="G313" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H313" s="16"/>
-      <c r="I313" s="16">
+      <c r="H313" s="12"/>
+      <c r="I313" s="12">
         <v>450</v>
       </c>
-      <c r="J313" s="17">
-        <v>2</v>
-      </c>
-      <c r="K313" s="17">
-        <v>0</v>
-      </c>
-      <c r="L313" s="17">
-        <v>2</v>
+      <c r="J313" s="13">
+        <v>70</v>
+      </c>
+      <c r="K313" s="13">
+        <v>25</v>
+      </c>
+      <c r="L313" s="13">
+        <v>45</v>
       </c>
       <c r="M313" s="1">
-        <v>-40939.404148889203</v>
+        <v>-430.311165768303</v>
       </c>
       <c r="N313" s="1">
-        <v>-20469.702074444602</v>
-      </c>
-      <c r="O313" s="2"/>
-      <c r="P313" s="2"/>
+        <v>-6.1473023681186199</v>
+      </c>
+      <c r="O313" s="2">
+        <v>1705</v>
+      </c>
+      <c r="P313" s="2">
+        <v>697</v>
+      </c>
       <c r="Q313" s="3">
-        <v>-20469.702074444602</v>
+        <v>-396.78469257262901</v>
       </c>
       <c r="R313" s="3">
-        <v>-40490</v>
+        <v>-451.58516801854398</v>
       </c>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A314" s="15">
+      <c r="A314" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>311</v>
       </c>
-      <c r="B314" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C314" s="16" t="s">
+      <c r="B314" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D314" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E314" s="16" t="s">
+      <c r="E314" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F314" s="16" t="s">
+      <c r="F314" s="12" t="s">
         <v>99</v>
       </c>
       <c r="G314" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H314" s="16"/>
-      <c r="I314" s="16">
+      <c r="H314" s="12"/>
+      <c r="I314" s="12">
         <v>650</v>
       </c>
-      <c r="J314" s="17">
-        <v>2</v>
-      </c>
-      <c r="K314" s="17">
-        <v>0</v>
-      </c>
-      <c r="L314" s="17">
-        <v>2</v>
+      <c r="J314" s="13">
+        <v>66</v>
+      </c>
+      <c r="K314" s="13">
+        <v>28</v>
+      </c>
+      <c r="L314" s="13">
+        <v>38</v>
       </c>
       <c r="M314" s="1">
-        <v>-40975</v>
+        <v>-59.366458938267897</v>
       </c>
       <c r="N314" s="1">
-        <v>-20487.5</v>
-      </c>
-      <c r="O314" s="2"/>
-      <c r="P314" s="2"/>
+        <v>-0.89949180209496804</v>
+      </c>
+      <c r="O314" s="2">
+        <v>1705</v>
+      </c>
+      <c r="P314" s="2">
+        <v>697.85714285714198</v>
+      </c>
       <c r="Q314" s="3">
-        <v>-20487.5</v>
+        <v>-515.77280155100698</v>
       </c>
       <c r="R314" s="3">
-        <v>-40490</v>
+        <v>-651.90829807442697</v>
       </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A315" s="15">
+      <c r="A315" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>312</v>
       </c>
-      <c r="B315" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C315" s="16" t="s">
+      <c r="B315" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C315" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E315" s="16" t="s">
+      <c r="E315" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F315" s="16" t="s">
+      <c r="F315" s="12" t="s">
         <v>100</v>
       </c>
       <c r="G315" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H315" s="16"/>
-      <c r="I315" s="16">
+      <c r="H315" s="12"/>
+      <c r="I315" s="12">
         <v>250</v>
       </c>
-      <c r="J315" s="17">
-        <v>2</v>
-      </c>
-      <c r="K315" s="17">
-        <v>0</v>
-      </c>
-      <c r="L315" s="17">
-        <v>2</v>
+      <c r="J315" s="13">
+        <v>175</v>
+      </c>
+      <c r="K315" s="13">
+        <v>50</v>
+      </c>
+      <c r="L315" s="13">
+        <v>125</v>
       </c>
       <c r="M315" s="1">
-        <v>-41674.406674907201</v>
+        <v>-941.022020344054</v>
       </c>
       <c r="N315" s="1">
-        <v>-20837.2033374536</v>
-      </c>
-      <c r="O315" s="2"/>
-      <c r="P315" s="2"/>
+        <v>-5.37726868768031</v>
+      </c>
+      <c r="O315" s="2">
+        <v>2055</v>
+      </c>
+      <c r="P315" s="2">
+        <v>611.99999999999898</v>
+      </c>
       <c r="Q315" s="3">
-        <v>-20837.2033374536</v>
+        <v>-252.32817616275199</v>
       </c>
       <c r="R315" s="3">
-        <v>-41425</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A316" s="15">
+      <c r="A316" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>313</v>
       </c>
-      <c r="B316" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C316" s="16" t="s">
+      <c r="B316" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C316" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D316" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E316" s="16" t="s">
+      <c r="E316" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F316" s="16" t="s">
+      <c r="F316" s="12" t="s">
         <v>100</v>
       </c>
       <c r="G316" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H316" s="16"/>
-      <c r="I316" s="16">
+      <c r="H316" s="12"/>
+      <c r="I316" s="12">
         <v>450</v>
       </c>
-      <c r="J316" s="17">
-        <v>3</v>
-      </c>
-      <c r="K316" s="17">
-        <v>1</v>
-      </c>
-      <c r="L316" s="17">
-        <v>2</v>
+      <c r="J316" s="13">
+        <v>151</v>
+      </c>
+      <c r="K316" s="13">
+        <v>58</v>
+      </c>
+      <c r="L316" s="13">
+        <v>93</v>
       </c>
       <c r="M316" s="1">
-        <v>-41635.871486741402</v>
+        <v>-5815.4627086467599</v>
       </c>
       <c r="N316" s="1">
-        <v>-13878.6238289138</v>
+        <v>-38.512998070508303</v>
       </c>
       <c r="O316" s="2">
-        <v>240</v>
+        <v>2055</v>
       </c>
       <c r="P316" s="2">
-        <v>240</v>
+        <v>600.08620689655095</v>
       </c>
       <c r="Q316" s="3">
-        <v>-20937.935743370701</v>
+        <v>-436.77916891017998</v>
       </c>
       <c r="R316" s="3">
-        <v>-41425</v>
+        <v>-2990</v>
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A317" s="15">
+      <c r="A317" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>314</v>
       </c>
-      <c r="B317" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C317" s="16" t="s">
+      <c r="B317" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C317" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E317" s="16" t="s">
+      <c r="E317" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F317" s="16" t="s">
+      <c r="F317" s="12" t="s">
         <v>100</v>
       </c>
       <c r="G317" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H317" s="16"/>
-      <c r="I317" s="16">
+      <c r="H317" s="12"/>
+      <c r="I317" s="12">
         <v>650</v>
       </c>
-      <c r="J317" s="17">
-        <v>3</v>
-      </c>
-      <c r="K317" s="17">
-        <v>1</v>
-      </c>
-      <c r="L317" s="17">
-        <v>2</v>
+      <c r="J317" s="13">
+        <v>141</v>
+      </c>
+      <c r="K317" s="13">
+        <v>61</v>
+      </c>
+      <c r="L317" s="13">
+        <v>80</v>
       </c>
       <c r="M317" s="1">
-        <v>-41836.258814182103</v>
+        <v>-4688.9069496447701</v>
       </c>
       <c r="N317" s="1">
-        <v>-13945.4196047273</v>
+        <v>-33.254659217338798</v>
       </c>
       <c r="O317" s="2">
-        <v>240</v>
+        <v>2055.00000000001</v>
       </c>
       <c r="P317" s="2">
-        <v>240</v>
+        <v>630.32786885245901</v>
       </c>
       <c r="Q317" s="3">
-        <v>-21038.129407091001</v>
+        <v>-539.23633687055894</v>
       </c>
       <c r="R317" s="3">
-        <v>-41424.999999999898</v>
+        <v>-2990</v>
       </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A318" s="15">
+      <c r="A318" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>315</v>
       </c>
-      <c r="B318" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C318" s="16" t="s">
+      <c r="B318" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C318" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E318" s="16" t="s">
+      <c r="E318" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F318" s="16" t="s">
+      <c r="F318" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G318" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H318" s="16"/>
-      <c r="I318" s="16">
+      <c r="H318" s="12"/>
+      <c r="I318" s="12">
         <v>250</v>
       </c>
-      <c r="J318" s="17">
-        <v>2</v>
-      </c>
-      <c r="K318" s="17">
-        <v>0</v>
-      </c>
-      <c r="L318" s="17">
-        <v>2</v>
+      <c r="J318" s="13">
+        <v>311</v>
+      </c>
+      <c r="K318" s="13">
+        <v>79</v>
+      </c>
+      <c r="L318" s="13">
+        <v>232</v>
       </c>
       <c r="M318" s="1">
-        <v>-41674.406674907201</v>
+        <v>-7917.5147157886504</v>
       </c>
       <c r="N318" s="1">
-        <v>-20837.2033374536</v>
-      </c>
-      <c r="O318" s="2"/>
-      <c r="P318" s="2"/>
+        <v>-25.458246674561501</v>
+      </c>
+      <c r="O318" s="2">
+        <v>2055</v>
+      </c>
+      <c r="P318" s="2">
+        <v>651.51898734177098</v>
+      </c>
       <c r="Q318" s="3">
-        <v>-20837.2033374536</v>
+        <v>-255.98066687839901</v>
       </c>
       <c r="R318" s="3">
-        <v>-41425</v>
+        <v>-995</v>
       </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A319" s="15">
+      <c r="A319" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>316</v>
       </c>
-      <c r="B319" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C319" s="16" t="s">
+      <c r="B319" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C319" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D319" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E319" s="16" t="s">
+      <c r="E319" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F319" s="16" t="s">
+      <c r="F319" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G319" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H319" s="16"/>
-      <c r="I319" s="16">
+      <c r="H319" s="12"/>
+      <c r="I319" s="12">
         <v>450</v>
       </c>
-      <c r="J319" s="17">
-        <v>3</v>
-      </c>
-      <c r="K319" s="17">
-        <v>1</v>
-      </c>
-      <c r="L319" s="17">
-        <v>2</v>
+      <c r="J319" s="13">
+        <v>270</v>
+      </c>
+      <c r="K319" s="13">
+        <v>96</v>
+      </c>
+      <c r="L319" s="13">
+        <v>174</v>
       </c>
       <c r="M319" s="1">
-        <v>-41635.871486741402</v>
+        <v>-9850.7730819451808</v>
       </c>
       <c r="N319" s="1">
-        <v>-13878.6238289138</v>
+        <v>-36.484344747945102</v>
       </c>
       <c r="O319" s="2">
-        <v>240</v>
+        <v>2160</v>
       </c>
       <c r="P319" s="2">
-        <v>240</v>
+        <v>688.90625</v>
       </c>
       <c r="Q319" s="3">
-        <v>-20937.935743370701</v>
+        <v>-436.69984529853502</v>
       </c>
       <c r="R319" s="3">
-        <v>-41425</v>
+        <v>-2990</v>
       </c>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A320" s="15">
+      <c r="A320" s="4">
         <f xml:space="preserve"> ROW() - ROW(DATA[[#Headers],[Row]])</f>
         <v>317</v>
       </c>
-      <c r="B320" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C320" s="16" t="s">
+      <c r="B320" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C320" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D320" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E320" s="16" t="s">
+      <c r="E320" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F320" s="16" t="s">
+      <c r="F320" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G320" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H320" s="16"/>
-      <c r="I320" s="16">
+      <c r="H320" s="12"/>
+      <c r="I320" s="12">
         <v>650</v>
       </c>
-      <c r="J320" s="17">
-        <v>3</v>
-      </c>
-      <c r="K320" s="17">
-        <v>1</v>
-      </c>
-      <c r="L320" s="17">
-        <v>2</v>
+      <c r="J320" s="13">
+        <v>246</v>
+      </c>
+      <c r="K320" s="13">
+        <v>101</v>
+      </c>
+      <c r="L320" s="13">
+        <v>145</v>
       </c>
       <c r="M320" s="1">
-        <v>-41836.258814182103</v>
+        <v>-5905.3707534299601</v>
       </c>
       <c r="N320" s="1">
-        <v>-13945.4196047273</v>
+        <v>-24.0055721684144</v>
       </c>
       <c r="O320" s="2">
-        <v>240</v>
+        <v>2160</v>
       </c>
       <c r="P320" s="2">
-        <v>240</v>
+        <v>729.15841584158295</v>
       </c>
       <c r="Q320" s="3">
-        <v>-21038.129407091001</v>
+        <v>-548.62324657537795</v>
       </c>
       <c r="R320" s="3">
-        <v>-41424.999999999898</v>
+        <v>-2990</v>
       </c>
     </row>
   </sheetData>
@@ -17788,10 +18015,10 @@
     <mergeCell ref="A1:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H320 E4:E320">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Short"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Long"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Backtests/Results.xlsx
+++ b/Backtests/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\FINANCE\Code\Customs\Guilherme L (Offline)\Backtests\Seven Strats\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291AD6B9-D3A8-4859-8052-2CC67315BCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E0835-70BC-4300-A5EF-7A85C7D96D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="103">
   <si>
     <t>TF</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Short:  Ses.1 Hilo &lt; 2000  +  Open Inside  +  PL | Ses.1 Low &lt; 100   +  Price In Ses.1 Low</t>
+  </si>
+  <si>
+    <t>Exit: (Time = 17:00) OR (Hit SL)</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1051,7 @@
   <dimension ref="A1:R320"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,40 +1183,38 @@
         <v>65</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H4" s="12">
         <v>500</v>
       </c>
-      <c r="I4" s="12">
-        <v>80</v>
-      </c>
+      <c r="I4" s="12"/>
       <c r="J4" s="13">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="K4" s="13">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="L4" s="13">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M4" s="1">
-        <v>681.98665746849997</v>
+        <v>-4770.6273812127702</v>
       </c>
       <c r="N4" s="1">
-        <v>5.5900545694139296</v>
+        <v>-50.217130328555498</v>
       </c>
       <c r="O4" s="2">
         <v>500.97136582480698</v>
       </c>
       <c r="P4" s="2">
-        <v>500.40647784615697</v>
+        <v>422.94914433709999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-80.051249459253199</v>
+        <v>-290.55555555555497</v>
       </c>
       <c r="R4" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1237,40 +1238,38 @@
         <v>65</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H5" s="12">
         <v>600</v>
       </c>
-      <c r="I5" s="12">
-        <v>80</v>
-      </c>
+      <c r="I5" s="12"/>
       <c r="J5" s="13">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="K5" s="13">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L5" s="13">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="M5" s="1">
-        <v>1543.0556739568699</v>
+        <v>-4390.1269761639196</v>
       </c>
       <c r="N5" s="1">
-        <v>12.6479973275153</v>
+        <v>-46.211862906988699</v>
       </c>
       <c r="O5" s="2">
         <v>601.16563898976801</v>
       </c>
       <c r="P5" s="2">
-        <v>585.20003530087797</v>
+        <v>452.737839478583</v>
       </c>
       <c r="Q5" s="3">
-        <v>-80.0509040586482</v>
+        <v>-287.890625</v>
       </c>
       <c r="R5" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1294,40 +1293,38 @@
         <v>65</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H6" s="12">
         <v>700</v>
       </c>
-      <c r="I6" s="12">
-        <v>80</v>
-      </c>
+      <c r="I6" s="12"/>
       <c r="J6" s="13">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="K6" s="13">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L6" s="13">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="M6" s="1">
-        <v>2363.6248284172698</v>
+        <v>-3629.4100852030201</v>
       </c>
       <c r="N6" s="1">
-        <v>19.373974003420201</v>
+        <v>-38.204316686347603</v>
       </c>
       <c r="O6" s="2">
         <v>701.35991215472995</v>
       </c>
       <c r="P6" s="2">
-        <v>678.06593623505205</v>
+        <v>497.18633049323</v>
       </c>
       <c r="Q6" s="3">
-        <v>-80.051227842863796</v>
+        <v>-285.30769230769101</v>
       </c>
       <c r="R6" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1351,40 +1348,38 @@
         <v>65</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H7" s="12">
         <v>800</v>
       </c>
-      <c r="I7" s="12">
-        <v>80</v>
-      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="13">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="K7" s="13">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L7" s="13">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="M7" s="1">
-        <v>2688.3243485355401</v>
+        <v>-2599.3587526886899</v>
       </c>
       <c r="N7" s="1">
-        <v>22.035445479799499</v>
+        <v>-27.361671080933601</v>
       </c>
       <c r="O7" s="2">
         <v>801.55418531969099</v>
       </c>
       <c r="P7" s="2">
-        <v>750.25913572277398</v>
+        <v>531.52137491037604</v>
       </c>
       <c r="Q7" s="3">
-        <v>-80.051987731832398</v>
+        <v>-285.30769230769198</v>
       </c>
       <c r="R7" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1408,40 +1403,38 @@
         <v>65</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H8" s="12">
         <v>900</v>
       </c>
-      <c r="I8" s="12">
-        <v>80</v>
-      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="13">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="K8" s="13">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L8" s="13">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="M8" s="1">
-        <v>3989.43522801582</v>
+        <v>-798.02859677470406</v>
       </c>
       <c r="N8" s="1">
-        <v>32.700288754227998</v>
+        <v>-8.4003010186810894</v>
       </c>
       <c r="O8" s="2">
         <v>901.74845848465304</v>
       </c>
       <c r="P8" s="2">
-        <v>836.99986102145897</v>
+        <v>591.56571344084205</v>
       </c>
       <c r="Q8" s="3">
-        <v>-80.051987731832398</v>
+        <v>-285.30769230769198</v>
       </c>
       <c r="R8" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1465,40 +1458,38 @@
         <v>65</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H9" s="12">
         <v>1000</v>
       </c>
-      <c r="I9" s="12">
-        <v>80</v>
-      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="13">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="K9" s="13">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L9" s="13">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="M9" s="1">
-        <v>3649.2838702624099</v>
+        <v>-748.06410505260203</v>
       </c>
       <c r="N9" s="1">
-        <v>29.9121628710033</v>
+        <v>-7.8743590005537101</v>
       </c>
       <c r="O9" s="2">
         <v>1001.94273164961</v>
       </c>
       <c r="P9" s="2">
-        <v>814.32310383790298</v>
+        <v>593.23119649824605</v>
       </c>
       <c r="Q9" s="3">
-        <v>-80.051987731833094</v>
+        <v>-285.30769230769198</v>
       </c>
       <c r="R9" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1522,40 +1513,38 @@
         <v>66</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H10" s="12">
         <v>500</v>
       </c>
-      <c r="I10" s="12">
-        <v>80</v>
-      </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="13">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="K10" s="13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="L10" s="13">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="M10" s="1">
-        <v>161.608409329826</v>
+        <v>-5869.1182632309201</v>
       </c>
       <c r="N10" s="1">
-        <v>1.1301287365722099</v>
+        <v>-51.939099674609899</v>
       </c>
       <c r="O10" s="2">
         <v>500.97136582480698</v>
       </c>
       <c r="P10" s="2">
-        <v>500.40672257049499</v>
+        <v>422.65478254655301</v>
       </c>
       <c r="Q10" s="3">
-        <v>-80.053057252683502</v>
+        <v>-292.39999999999901</v>
       </c>
       <c r="R10" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1579,40 +1568,38 @@
         <v>66</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H11" s="12">
         <v>600</v>
       </c>
-      <c r="I11" s="12">
-        <v>80</v>
-      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="13">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="K11" s="13">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="13">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="M11" s="1">
-        <v>1222.8409958540699</v>
+        <v>-5909.7078026487998</v>
       </c>
       <c r="N11" s="1">
-        <v>8.5513356353431593</v>
+        <v>-52.2982991384849</v>
       </c>
       <c r="O11" s="2">
         <v>601.16563898976801</v>
       </c>
       <c r="P11" s="2">
-        <v>586.80958001736201</v>
+        <v>449.45256103753297</v>
       </c>
       <c r="Q11" s="3">
-        <v>-80.052750197385606</v>
+        <v>-286.88311688311597</v>
       </c>
       <c r="R11" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1636,40 +1623,38 @@
         <v>66</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H12" s="12">
         <v>700</v>
       </c>
-      <c r="I12" s="12">
-        <v>80</v>
-      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="13">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="K12" s="13">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L12" s="13">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="M12" s="1">
-        <v>1637.52440644014</v>
+        <v>-4848.9210494353601</v>
       </c>
       <c r="N12" s="1">
-        <v>11.451219625455501</v>
+        <v>-42.910805747215498</v>
       </c>
       <c r="O12" s="2">
         <v>701.35991215472995</v>
       </c>
       <c r="P12" s="2">
-        <v>646.897258672303</v>
+        <v>496.03082715898802</v>
       </c>
       <c r="Q12" s="3">
-        <v>-80.053009997290403</v>
+        <v>-284.74358974358898</v>
       </c>
       <c r="R12" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1693,40 +1678,38 @@
         <v>66</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H13" s="12">
         <v>800</v>
       </c>
-      <c r="I13" s="12">
-        <v>80</v>
-      </c>
+      <c r="I13" s="12"/>
       <c r="J13" s="13">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="K13" s="13">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L13" s="13">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="M13" s="1">
-        <v>2062.2375946071402</v>
+        <v>-3518.7998546684198</v>
       </c>
       <c r="N13" s="1">
-        <v>14.421241920329599</v>
+        <v>-31.139821722729401</v>
       </c>
       <c r="O13" s="2">
         <v>801.55418531969099</v>
       </c>
       <c r="P13" s="2">
-        <v>714.64684589593696</v>
+        <v>534.03428986661402</v>
       </c>
       <c r="Q13" s="3">
-        <v>-80.053641155744401</v>
+        <v>-284.74358974358802</v>
       </c>
       <c r="R13" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1750,40 +1733,38 @@
         <v>66</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H14" s="12">
         <v>900</v>
       </c>
-      <c r="I14" s="12">
-        <v>80</v>
-      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="13">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="K14" s="13">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L14" s="13">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="M14" s="1">
-        <v>3463.3621421360799</v>
+        <v>-1417.39983650199</v>
       </c>
       <c r="N14" s="1">
-        <v>24.219315679273301</v>
+        <v>-12.5433613849734</v>
       </c>
       <c r="O14" s="2">
-        <v>901.74845848465304</v>
+        <v>901.74845848463804</v>
       </c>
       <c r="P14" s="2">
-        <v>797.06593692704803</v>
+        <v>594.07429038565601</v>
       </c>
       <c r="Q14" s="3">
-        <v>-80.053641155743904</v>
+        <v>-284.74358974358898</v>
       </c>
       <c r="R14" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1807,40 +1788,38 @@
         <v>66</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H15" s="12">
         <v>1000</v>
       </c>
-      <c r="I15" s="12">
-        <v>80</v>
-      </c>
+      <c r="I15" s="12"/>
       <c r="J15" s="13">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="K15" s="13">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L15" s="13">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="M15" s="1">
-        <v>3223.22445243127</v>
+        <v>-1067.36548252745</v>
       </c>
       <c r="N15" s="1">
-        <v>22.540031135883002</v>
+        <v>-9.4457122347562503</v>
       </c>
       <c r="O15" s="2">
-        <v>1001.9427316496</v>
+        <v>1001.94273164961</v>
       </c>
       <c r="P15" s="2">
-        <v>782.94019047382994</v>
+        <v>604.07527192778798</v>
       </c>
       <c r="Q15" s="3">
-        <v>-80.0536411557447</v>
+        <v>-284.74358974359001</v>
       </c>
       <c r="R15" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1864,40 +1843,38 @@
         <v>67</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H16" s="12">
         <v>500</v>
       </c>
-      <c r="I16" s="12">
-        <v>80</v>
-      </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="13">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="K16" s="13">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L16" s="13">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="M16" s="1">
-        <v>881.41568852227601</v>
+        <v>-8041.5325936891404</v>
       </c>
       <c r="N16" s="1">
-        <v>5.4074582117930996</v>
+        <v>-61.385744989993398</v>
       </c>
       <c r="O16" s="2">
         <v>500.97136582480698</v>
       </c>
       <c r="P16" s="2">
-        <v>500.38116545955398</v>
+        <v>424.169713779792</v>
       </c>
       <c r="Q16" s="3">
-        <v>-80.055627931705203</v>
+        <v>-306.95402298850502</v>
       </c>
       <c r="R16" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1921,40 +1898,38 @@
         <v>67</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H17" s="12">
         <v>600</v>
       </c>
-      <c r="I17" s="12">
-        <v>80</v>
-      </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="13">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="K17" s="13">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L17" s="13">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="M17" s="1">
-        <v>1662.76058949813</v>
+        <v>-8447.6213590255593</v>
       </c>
       <c r="N17" s="1">
-        <v>10.200985211644999</v>
+        <v>-64.485659229202696</v>
       </c>
       <c r="O17" s="2">
         <v>601.16563898976801</v>
       </c>
       <c r="P17" s="2">
-        <v>588.65993129347305</v>
+        <v>455.66777173108301</v>
       </c>
       <c r="Q17" s="3">
-        <v>-80.055020559987696</v>
+        <v>-301.444444444444</v>
       </c>
       <c r="R17" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1978,40 +1953,38 @@
         <v>67</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H18" s="12">
         <v>700</v>
       </c>
-      <c r="I18" s="12">
-        <v>80</v>
-      </c>
+      <c r="I18" s="12"/>
       <c r="J18" s="13">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="K18" s="13">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L18" s="13">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="M18" s="1">
-        <v>2377.63341143856</v>
+        <v>-6986.4868652083596</v>
       </c>
       <c r="N18" s="1">
-        <v>14.5867080456353</v>
+        <v>-53.331960803117298</v>
       </c>
       <c r="O18" s="2">
         <v>701.35991215472995</v>
       </c>
       <c r="P18" s="2">
-        <v>654.54650169439901</v>
+        <v>506.58782836978997</v>
       </c>
       <c r="Q18" s="3">
-        <v>-80.055233268618395</v>
+        <v>-299.45054945054898</v>
       </c>
       <c r="R18" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2035,40 +2008,38 @@
         <v>67</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H19" s="12">
         <v>800</v>
       </c>
-      <c r="I19" s="12">
-        <v>80</v>
-      </c>
+      <c r="I19" s="12"/>
       <c r="J19" s="13">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="K19" s="13">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="L19" s="13">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="M19" s="1">
-        <v>2221.9227990302702</v>
+        <v>-5921.5753952281902</v>
       </c>
       <c r="N19" s="1">
-        <v>13.631428214909601</v>
+        <v>-45.202865612428901</v>
       </c>
       <c r="O19" s="2">
         <v>801.55418531969099</v>
       </c>
       <c r="P19" s="2">
-        <v>723.68180029871598</v>
+        <v>533.21061511929395</v>
       </c>
       <c r="Q19" s="3">
-        <v>-80.055773657259195</v>
+        <v>-299.45054945054898</v>
       </c>
       <c r="R19" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2092,40 +2063,38 @@
         <v>67</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H20" s="12">
         <v>900</v>
       </c>
-      <c r="I20" s="12">
-        <v>80</v>
-      </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="13">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="K20" s="13">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="L20" s="13">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="M20" s="1">
-        <v>3823.1670747397502</v>
+        <v>-4040.7339554750201</v>
       </c>
       <c r="N20" s="1">
-        <v>23.455012728464698</v>
+        <v>-30.845297370038299</v>
       </c>
       <c r="O20" s="2">
         <v>901.74845848465304</v>
       </c>
       <c r="P20" s="2">
-        <v>807.95781480973903</v>
+        <v>580.23165111312403</v>
       </c>
       <c r="Q20" s="3">
-        <v>-80.055773657258996</v>
+        <v>-299.45054945054898</v>
       </c>
       <c r="R20" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2149,40 +2118,38 @@
         <v>67</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H21" s="12">
         <v>1000</v>
       </c>
-      <c r="I21" s="12">
-        <v>80</v>
-      </c>
+      <c r="I21" s="12"/>
       <c r="J21" s="13">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="K21" s="13">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="L21" s="13">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="M21" s="1">
-        <v>3783.1491132156498</v>
+        <v>-3490.5145036085701</v>
       </c>
       <c r="N21" s="1">
-        <v>23.2095037620592</v>
+        <v>-26.645148882508199</v>
       </c>
       <c r="O21" s="2">
-        <v>1001.94273164961</v>
+        <v>1001.94273164962</v>
       </c>
       <c r="P21" s="2">
-        <v>805.85160630847099</v>
+        <v>593.98713740978599</v>
       </c>
       <c r="Q21" s="3">
-        <v>-80.055773657259095</v>
+        <v>-299.45054945054898</v>
       </c>
       <c r="R21" s="3">
-        <v>-80.1806368370016</v>
+        <v>-1315.00000000001</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2206,40 +2173,38 @@
         <v>68</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H22" s="12">
         <v>500</v>
       </c>
-      <c r="I22" s="12">
-        <v>80</v>
-      </c>
+      <c r="I22" s="12"/>
       <c r="J22" s="13">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="K22" s="13">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="L22" s="13">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="M22" s="1">
-        <v>601.60329517003197</v>
+        <v>-9133.8073453521502</v>
       </c>
       <c r="N22" s="1">
-        <v>3.3237751114366398</v>
+        <v>-61.714914495622601</v>
       </c>
       <c r="O22" s="2">
-        <v>500.996501173664</v>
+        <v>501.28291161726497</v>
       </c>
       <c r="P22" s="2">
-        <v>500.39091999572003</v>
+        <v>431.96311540097702</v>
       </c>
       <c r="Q22" s="3">
-        <v>-80.055229836894895</v>
+        <v>-306.06060606060601</v>
       </c>
       <c r="R22" s="3">
-        <v>-80.205265858749001</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2263,40 +2228,38 @@
         <v>68</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H23" s="12">
         <v>600</v>
       </c>
-      <c r="I23" s="12">
-        <v>80</v>
-      </c>
+      <c r="I23" s="12"/>
       <c r="J23" s="13">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="K23" s="13">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="L23" s="13">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="M23" s="1">
-        <v>1583.15138591764</v>
+        <v>-9039.3510610211906</v>
       </c>
       <c r="N23" s="1">
-        <v>8.7466927398765097</v>
+        <v>-61.076696358251297</v>
       </c>
       <c r="O23" s="2">
-        <v>601.19580140839298</v>
+        <v>601.53949394071196</v>
       </c>
       <c r="P23" s="2">
-        <v>589.65573446198403</v>
+        <v>471.42715084736602</v>
       </c>
       <c r="Q23" s="3">
-        <v>-80.054689434203596</v>
+        <v>-301.225490196078</v>
       </c>
       <c r="R23" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2320,40 +2283,38 @@
         <v>68</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H24" s="12">
         <v>700</v>
       </c>
-      <c r="I24" s="12">
-        <v>80</v>
-      </c>
+      <c r="I24" s="12"/>
       <c r="J24" s="13">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="K24" s="13">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L24" s="13">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="M24" s="1">
-        <v>2498.2273976300698</v>
+        <v>-7077.6715175365098</v>
       </c>
       <c r="N24" s="1">
-        <v>13.8023613128733</v>
+        <v>-47.822104848219603</v>
       </c>
       <c r="O24" s="2">
-        <v>701.39510164312298</v>
+        <v>701.79607626417396</v>
       </c>
       <c r="P24" s="2">
-        <v>658.56082017328595</v>
+        <v>528.16285516585594</v>
       </c>
       <c r="Q24" s="3">
-        <v>-80.054882698452502</v>
+        <v>-299.46601941747599</v>
       </c>
       <c r="R24" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2377,40 +2338,38 @@
         <v>68</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H25" s="12">
         <v>800</v>
       </c>
-      <c r="I25" s="12">
-        <v>80</v>
-      </c>
+      <c r="I25" s="12"/>
       <c r="J25" s="13">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="K25" s="13">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L25" s="13">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="M25" s="1">
-        <v>1662.68574706657</v>
+        <v>-6027.2461141862104</v>
       </c>
       <c r="N25" s="1">
-        <v>9.1861090998152992</v>
+        <v>-40.7246359066636</v>
       </c>
       <c r="O25" s="2">
-        <v>801.59440187785299</v>
+        <v>802.05265858760595</v>
       </c>
       <c r="P25" s="2">
-        <v>727.57743037767204</v>
+        <v>551.50564190697298</v>
       </c>
       <c r="Q25" s="3">
-        <v>-80.055048822899806</v>
+        <v>-299.46601941747502</v>
       </c>
       <c r="R25" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2434,40 +2393,38 @@
         <v>68</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H26" s="12">
         <v>900</v>
       </c>
-      <c r="I26" s="12">
-        <v>80</v>
-      </c>
+      <c r="I26" s="12"/>
       <c r="J26" s="13">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="K26" s="13">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L26" s="13">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="M26" s="1">
-        <v>3364.1293230108399</v>
+        <v>-3745.86351430266</v>
       </c>
       <c r="N26" s="1">
-        <v>18.586349850888599</v>
+        <v>-25.309888610153099</v>
       </c>
       <c r="O26" s="2">
-        <v>901.79370211258299</v>
+        <v>902.30924091106795</v>
       </c>
       <c r="P26" s="2">
-        <v>812.64960917488202</v>
+        <v>602.20303301549598</v>
       </c>
       <c r="Q26" s="3">
-        <v>-80.055048822899394</v>
+        <v>-299.46601941747502</v>
       </c>
       <c r="R26" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2491,40 +2448,38 @@
         <v>68</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H27" s="12">
         <v>1000</v>
       </c>
-      <c r="I27" s="12">
-        <v>80</v>
-      </c>
+      <c r="I27" s="12"/>
       <c r="J27" s="13">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="K27" s="13">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L27" s="13">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="M27" s="1">
-        <v>2932.3176593741</v>
+        <v>-3237.0959046531998</v>
       </c>
       <c r="N27" s="1">
-        <v>16.2006500517906</v>
+        <v>-21.872269626035099</v>
       </c>
       <c r="O27" s="2">
-        <v>1001.94273164961</v>
+        <v>1002.56582323451</v>
       </c>
       <c r="P27" s="2">
-        <v>791.05902599304602</v>
+        <v>613.50897989659404</v>
       </c>
       <c r="Q27" s="3">
-        <v>-80.055048822899494</v>
+        <v>-299.46601941747502</v>
       </c>
       <c r="R27" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2548,40 +2503,38 @@
         <v>69</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H28" s="12">
         <v>500</v>
       </c>
-      <c r="I28" s="12">
-        <v>80</v>
-      </c>
+      <c r="I28" s="12"/>
       <c r="J28" s="13">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="K28" s="13">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L28" s="13">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="M28" s="1">
-        <v>-359.32806988565397</v>
+        <v>-8981.4906574190099</v>
       </c>
       <c r="N28" s="1">
-        <v>-1.8618034709101201</v>
+        <v>-56.134316608868801</v>
       </c>
       <c r="O28" s="2">
-        <v>500.996501173664</v>
+        <v>501.28291161726497</v>
       </c>
       <c r="P28" s="2">
-        <v>500.390919995719</v>
+        <v>438.305728566315</v>
       </c>
       <c r="Q28" s="3">
-        <v>-80.0568382621219</v>
+        <v>-308.01886792452802</v>
       </c>
       <c r="R28" s="3">
-        <v>-80.205265858749001</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2605,40 +2558,38 @@
         <v>69</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H29" s="12">
         <v>600</v>
       </c>
-      <c r="I29" s="12">
-        <v>80</v>
-      </c>
+      <c r="I29" s="12"/>
       <c r="J29" s="13">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="K29" s="13">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="L29" s="13">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="M29" s="1">
-        <v>622.22002086204805</v>
+        <v>-9312.7427727357099</v>
       </c>
       <c r="N29" s="1">
-        <v>3.2239379319277099</v>
+        <v>-58.204642329598201</v>
       </c>
       <c r="O29" s="2">
-        <v>601.19580140839298</v>
+        <v>601.53949394071196</v>
       </c>
       <c r="P29" s="2">
-        <v>589.655734461988</v>
+        <v>465.92661229929797</v>
       </c>
       <c r="Q29" s="3">
-        <v>-80.056317196601498</v>
+        <v>-303.440366972476</v>
       </c>
       <c r="R29" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2662,40 +2613,38 @@
         <v>69</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H30" s="12">
         <v>700</v>
       </c>
-      <c r="I30" s="12">
-        <v>80</v>
-      </c>
+      <c r="I30" s="12"/>
       <c r="J30" s="13">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="K30" s="13">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="L30" s="13">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="M30" s="1">
-        <v>1537.2960325744</v>
+        <v>-7050.7951812034999</v>
       </c>
       <c r="N30" s="1">
-        <v>7.9652644174839597</v>
+        <v>-44.067469882521799</v>
       </c>
       <c r="O30" s="2">
-        <v>701.39510164312298</v>
+        <v>701.79607626417396</v>
       </c>
       <c r="P30" s="2">
-        <v>658.56082017328401</v>
+        <v>522.88409637592895</v>
       </c>
       <c r="Q30" s="3">
-        <v>-80.056487243594802</v>
+        <v>-301.77272727272702</v>
       </c>
       <c r="R30" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2719,40 +2668,38 @@
         <v>69</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H31" s="12">
         <v>800</v>
       </c>
-      <c r="I31" s="12">
-        <v>80</v>
-      </c>
+      <c r="I31" s="12"/>
       <c r="J31" s="13">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="K31" s="13">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L31" s="13">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="M31" s="1">
-        <v>701.75438201098495</v>
+        <v>-6385.9937769247399</v>
       </c>
       <c r="N31" s="1">
-        <v>3.6360330674144299</v>
+        <v>-39.912461105779599</v>
       </c>
       <c r="O31" s="2">
-        <v>801.59440187785299</v>
+        <v>802.05265858760595</v>
       </c>
       <c r="P31" s="2">
-        <v>727.57743037767295</v>
+        <v>536.18012446150396</v>
       </c>
       <c r="Q31" s="3">
-        <v>-80.0566140204768</v>
+        <v>-301.772727272726</v>
       </c>
       <c r="R31" s="3">
-        <v>-80.205265858749001</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2776,40 +2723,38 @@
         <v>69</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H32" s="12">
         <v>900</v>
       </c>
-      <c r="I32" s="12">
-        <v>80</v>
-      </c>
+      <c r="I32" s="12"/>
       <c r="J32" s="13">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="K32" s="13">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L32" s="13">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="M32" s="1">
-        <v>2403.1979579551698</v>
+        <v>-4004.4546348835802</v>
       </c>
       <c r="N32" s="1">
-        <v>12.451802890959399</v>
+        <v>-25.027841468022402</v>
       </c>
       <c r="O32" s="2">
-        <v>901.79370211258299</v>
+        <v>902.30924091106795</v>
       </c>
       <c r="P32" s="2">
-        <v>812.64960917488202</v>
+        <v>583.81090730232802</v>
       </c>
       <c r="Q32" s="3">
-        <v>-80.056614020476701</v>
+        <v>-301.77272727272702</v>
       </c>
       <c r="R32" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2833,40 +2778,38 @@
         <v>69</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H33" s="12">
         <v>1000</v>
       </c>
-      <c r="I33" s="12">
-        <v>80</v>
-      </c>
+      <c r="I33" s="12"/>
       <c r="J33" s="13">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="K33" s="13">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L33" s="13">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="M33" s="1">
-        <v>1971.38629431852</v>
+        <v>-3395.5304830765199</v>
       </c>
       <c r="N33" s="1">
-        <v>10.214436758127</v>
+        <v>-21.222065519228199</v>
       </c>
       <c r="O33" s="2">
-        <v>1001.94273164961</v>
+        <v>1002.56582323451</v>
       </c>
       <c r="P33" s="2">
-        <v>791.05902599304704</v>
+        <v>595.98939033846898</v>
       </c>
       <c r="Q33" s="3">
-        <v>-80.056614020476403</v>
+        <v>-301.77272727272702</v>
       </c>
       <c r="R33" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2890,40 +2833,38 @@
         <v>70</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H34" s="12">
         <v>500</v>
       </c>
-      <c r="I34" s="12">
-        <v>80</v>
-      </c>
+      <c r="I34" s="12"/>
       <c r="J34" s="13">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="K34" s="13">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="L34" s="13">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="M34" s="1">
-        <v>821.81313663138997</v>
+        <v>-7394.19588875924</v>
       </c>
       <c r="N34" s="1">
-        <v>4.1090656831569499</v>
+        <v>-44.276622088378701</v>
       </c>
       <c r="O34" s="2">
-        <v>500.996501173664</v>
+        <v>501.28291161726497</v>
       </c>
       <c r="P34" s="2">
-        <v>500.40100186215398</v>
+        <v>439.16617137696198</v>
       </c>
       <c r="Q34" s="3">
-        <v>-80.057403025561996</v>
+        <v>-308.37962962963002</v>
       </c>
       <c r="R34" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2947,40 +2888,38 @@
         <v>70</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H35" s="12">
         <v>600</v>
       </c>
-      <c r="I35" s="12">
-        <v>80</v>
-      </c>
+      <c r="I35" s="12"/>
       <c r="J35" s="13">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="K35" s="13">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="L35" s="13">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="M35" s="1">
-        <v>2103.6542542017901</v>
+        <v>-7324.9890503441202</v>
       </c>
       <c r="N35" s="1">
-        <v>10.518271271008899</v>
+        <v>-43.8622098823001</v>
       </c>
       <c r="O35" s="2">
-        <v>601.19580140839298</v>
+        <v>601.53949394071196</v>
       </c>
       <c r="P35" s="2">
-        <v>590.87021437126396</v>
+        <v>471.51805267242702</v>
       </c>
       <c r="Q35" s="3">
-        <v>-80.0568874787417</v>
+        <v>-303.873873873874</v>
       </c>
       <c r="R35" s="3">
-        <v>-80.205265858749001</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -3004,40 +2943,38 @@
         <v>70</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H36" s="12">
         <v>700</v>
       </c>
-      <c r="I36" s="12">
-        <v>80</v>
-      </c>
+      <c r="I36" s="12"/>
       <c r="J36" s="13">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="K36" s="13">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="L36" s="13">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="M36" s="1">
-        <v>3319.0232927369998</v>
+        <v>-4662.5825050799303</v>
       </c>
       <c r="N36" s="1">
-        <v>16.595116463684999</v>
+        <v>-27.919655719041501</v>
       </c>
       <c r="O36" s="2">
-        <v>701.39510164312298</v>
+        <v>701.79607626417396</v>
       </c>
       <c r="P36" s="2">
-        <v>663.42115583633904</v>
+        <v>530.68031808945602</v>
       </c>
       <c r="Q36" s="3">
-        <v>-80.057050339125396</v>
+        <v>-302.232142857143</v>
       </c>
       <c r="R36" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3061,40 +2998,38 @@
         <v>70</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H37" s="12">
         <v>800</v>
       </c>
-      <c r="I37" s="12">
-        <v>80</v>
-      </c>
+      <c r="I37" s="12"/>
       <c r="J37" s="13">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="K37" s="13">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L37" s="13">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="M37" s="1">
-        <v>1903.0557948363701</v>
+        <v>-3947.9756690327899</v>
       </c>
       <c r="N37" s="1">
-        <v>9.5152789741818502</v>
+        <v>-23.640572868459799</v>
       </c>
       <c r="O37" s="2">
-        <v>801.59440187785299</v>
+        <v>802.05265858760595</v>
       </c>
       <c r="P37" s="2">
-        <v>734.23815000781201</v>
+        <v>543.67316965395003</v>
       </c>
       <c r="Q37" s="3">
-        <v>-80.057210704132004</v>
+        <v>-302.232142857143</v>
       </c>
       <c r="R37" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3118,40 +3053,38 @@
         <v>70</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H38" s="12">
         <v>900</v>
       </c>
-      <c r="I38" s="12">
-        <v>80</v>
-      </c>
+      <c r="I38" s="12"/>
       <c r="J38" s="13">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="K38" s="13">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L38" s="13">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="M38" s="1">
-        <v>3804.71070735793</v>
+        <v>-2202.5526056878698</v>
       </c>
       <c r="N38" s="1">
-        <v>19.023553536789599</v>
+        <v>-13.188937758610001</v>
       </c>
       <c r="O38" s="2">
-        <v>901.79370211258299</v>
+        <v>902.30924091105396</v>
       </c>
       <c r="P38" s="2">
-        <v>820.67700966788402</v>
+        <v>586.71198878355699</v>
       </c>
       <c r="Q38" s="3">
-        <v>-80.057210704132103</v>
+        <v>-299.867256637168</v>
       </c>
       <c r="R38" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -3175,40 +3108,38 @@
         <v>70</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H39" s="12">
         <v>1000</v>
       </c>
-      <c r="I39" s="12">
-        <v>80</v>
-      </c>
+      <c r="I39" s="12"/>
       <c r="J39" s="13">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="K39" s="13">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L39" s="13">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="M39" s="1">
-        <v>3573.1103802985099</v>
+        <v>-1393.4171173034199</v>
       </c>
       <c r="N39" s="1">
-        <v>17.865551901492498</v>
+        <v>-8.3438150736732108</v>
       </c>
       <c r="O39" s="2">
-        <v>1001.94273164961</v>
+        <v>1002.56582323451</v>
       </c>
       <c r="P39" s="2">
-        <v>810.149722074274</v>
+        <v>601.69597930919497</v>
       </c>
       <c r="Q39" s="3">
-        <v>-80.057210704132203</v>
+        <v>-299.867256637168</v>
       </c>
       <c r="R39" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -3232,40 +3163,38 @@
         <v>71</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H40" s="12">
         <v>500</v>
       </c>
-      <c r="I40" s="12">
-        <v>80</v>
-      </c>
+      <c r="I40" s="12"/>
       <c r="J40" s="13">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="K40" s="13">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="L40" s="13">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="M40" s="1">
-        <v>341.16233014565603</v>
+        <v>-7232.41583392354</v>
       </c>
       <c r="N40" s="1">
-        <v>1.65612781624105</v>
+        <v>-41.805871872390398</v>
       </c>
       <c r="O40" s="2">
-        <v>500.996501173664</v>
+        <v>501.28291161726497</v>
       </c>
       <c r="P40" s="2">
-        <v>500.40100186215199</v>
+        <v>441.18990436190899</v>
       </c>
       <c r="Q40" s="3">
-        <v>-80.059134033089094</v>
+        <v>-304.86607142857099</v>
       </c>
       <c r="R40" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -3289,40 +3218,38 @@
         <v>71</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H41" s="12">
         <v>600</v>
       </c>
-      <c r="I41" s="12">
-        <v>80</v>
-      </c>
+      <c r="I41" s="12"/>
       <c r="J41" s="13">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="K41" s="13">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="L41" s="13">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="M41" s="1">
-        <v>1623.0034477161801</v>
+        <v>-7489.3324846875303</v>
       </c>
       <c r="N41" s="1">
-        <v>7.8786575131853498</v>
+        <v>-43.290939217846997</v>
       </c>
       <c r="O41" s="2">
-        <v>601.19580140839298</v>
+        <v>601.53949394071196</v>
       </c>
       <c r="P41" s="2">
-        <v>590.87021437126498</v>
+        <v>466.908060608835</v>
       </c>
       <c r="Q41" s="3">
-        <v>-80.058616426301498</v>
+        <v>-300.60869565217399</v>
       </c>
       <c r="R41" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1314.99999999998</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -3346,40 +3273,38 @@
         <v>71</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H42" s="12">
         <v>700</v>
       </c>
-      <c r="I42" s="12">
-        <v>80</v>
-      </c>
+      <c r="I42" s="12"/>
       <c r="J42" s="13">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="K42" s="13">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="L42" s="13">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="M42" s="1">
-        <v>2838.3724862512099</v>
+        <v>-5532.5825050799704</v>
       </c>
       <c r="N42" s="1">
-        <v>13.7785072148117</v>
+        <v>-31.9802456941039</v>
       </c>
       <c r="O42" s="2">
-        <v>701.39510164312298</v>
+        <v>701.79607626415896</v>
       </c>
       <c r="P42" s="2">
-        <v>663.42115583633802</v>
+        <v>522.54316955214301</v>
       </c>
       <c r="Q42" s="3">
-        <v>-80.058764252742094</v>
+        <v>-297.39316239316202</v>
       </c>
       <c r="R42" s="3">
-        <v>-80.205265858778105</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3403,40 +3328,38 @@
         <v>71</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H43" s="12">
         <v>800</v>
       </c>
-      <c r="I43" s="12">
-        <v>80</v>
-      </c>
+      <c r="I43" s="12"/>
       <c r="J43" s="13">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="K43" s="13">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="L43" s="13">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="M43" s="1">
-        <v>1422.40498835073</v>
+        <v>-4817.9756690327704</v>
       </c>
       <c r="N43" s="1">
-        <v>6.90487858422689</v>
+        <v>-27.849570341229899</v>
       </c>
       <c r="O43" s="2">
-        <v>801.59440187785299</v>
+        <v>802.05265858760595</v>
       </c>
       <c r="P43" s="2">
-        <v>734.23815000781303</v>
+        <v>535.30400591012904</v>
       </c>
       <c r="Q43" s="3">
-        <v>-80.058882129462802</v>
+        <v>-297.39316239316202</v>
       </c>
       <c r="R43" s="3">
-        <v>-80.205265858749001</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3460,40 +3383,38 @@
         <v>71</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H44" s="12">
         <v>900</v>
       </c>
-      <c r="I44" s="12">
-        <v>80</v>
-      </c>
+      <c r="I44" s="12"/>
       <c r="J44" s="13">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="K44" s="13">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L44" s="13">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="M44" s="1">
-        <v>3324.0599008722202</v>
+        <v>-3072.5526056878998</v>
       </c>
       <c r="N44" s="1">
-        <v>16.136213111030099</v>
+        <v>-17.760419686057201</v>
       </c>
       <c r="O44" s="2">
-        <v>901.79370211258299</v>
+        <v>902.30924091106795</v>
       </c>
       <c r="P44" s="2">
-        <v>820.67700966788198</v>
+        <v>577.40813444203798</v>
       </c>
       <c r="Q44" s="3">
-        <v>-80.058882129463001</v>
+        <v>-295.16949152542298</v>
       </c>
       <c r="R44" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3517,40 +3438,38 @@
         <v>71</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H45" s="12">
         <v>1000</v>
       </c>
-      <c r="I45" s="12">
-        <v>80</v>
-      </c>
+      <c r="I45" s="12"/>
       <c r="J45" s="13">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="K45" s="13">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L45" s="13">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="M45" s="1">
-        <v>3092.4595738128401</v>
+        <v>-2263.4171173034201</v>
       </c>
       <c r="N45" s="1">
-        <v>15.011939678703101</v>
+        <v>-13.08333593817</v>
       </c>
       <c r="O45" s="2">
-        <v>1001.94273164961</v>
+        <v>1002.56582323451</v>
       </c>
       <c r="P45" s="2">
-        <v>810.149722074274</v>
+        <v>592.11968877629999</v>
       </c>
       <c r="Q45" s="3">
-        <v>-80.058882129463001</v>
+        <v>-295.16949152542298</v>
       </c>
       <c r="R45" s="3">
-        <v>-80.205265858763596</v>
+        <v>-1315</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3574,40 +3493,38 @@
         <v>72</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H46" s="12">
         <v>500</v>
       </c>
-      <c r="I46" s="12">
-        <v>80</v>
-      </c>
+      <c r="I46" s="12"/>
       <c r="J46" s="13">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K46" s="13">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="L46" s="13">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="M46" s="1">
-        <v>-200.15771112854401</v>
+        <v>-318.717319621966</v>
       </c>
       <c r="N46" s="1">
-        <v>-1.9245933762359999</v>
+        <v>-3.6217877229768898</v>
       </c>
       <c r="O46" s="2">
-        <v>499.98037291460702</v>
+        <v>499.98037291463697</v>
       </c>
       <c r="P46" s="2">
-        <v>499.65373804499802</v>
+        <v>452.16008122357601</v>
       </c>
       <c r="Q46" s="3">
-        <v>-79.947889375094704</v>
+        <v>-277.09090909090901</v>
       </c>
       <c r="R46" s="3">
-        <v>-79.996859049875596</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3631,40 +3548,38 @@
         <v>72</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H47" s="12">
         <v>600</v>
       </c>
-      <c r="I47" s="12">
-        <v>80</v>
-      </c>
+      <c r="I47" s="12"/>
       <c r="J47" s="13">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K47" s="13">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L47" s="13">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="M47" s="1">
-        <v>-839.45315143757</v>
+        <v>850.23090747665196</v>
       </c>
       <c r="N47" s="1">
-        <v>-8.0716649176689401</v>
+        <v>9.6617148576892298</v>
       </c>
       <c r="O47" s="2">
-        <v>599.97046953439701</v>
+        <v>599.97358922440606</v>
       </c>
       <c r="P47" s="2">
-        <v>599.60544910762701</v>
+        <v>525.65260991860202</v>
       </c>
       <c r="Q47" s="3">
-        <v>-79.947452598080304</v>
+        <v>-270.96491228070198</v>
       </c>
       <c r="R47" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3688,40 +3603,38 @@
         <v>72</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H48" s="12">
         <v>700</v>
       </c>
-      <c r="I48" s="12">
-        <v>80</v>
-      </c>
+      <c r="I48" s="12"/>
       <c r="J48" s="13">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K48" s="13">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="L48" s="13">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="M48" s="1">
-        <v>-1848.2721268088201</v>
+        <v>2064.71968218643</v>
       </c>
       <c r="N48" s="1">
-        <v>-17.771847373161702</v>
+        <v>23.462723661209399</v>
       </c>
       <c r="O48" s="2">
-        <v>699.82489785709095</v>
+        <v>699.96918742847595</v>
       </c>
       <c r="P48" s="2">
-        <v>638.52316612693505</v>
+        <v>564.82966716730402</v>
       </c>
       <c r="Q48" s="3">
-        <v>-79.947164441591994</v>
+        <v>-270.96491228070101</v>
       </c>
       <c r="R48" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3745,40 +3658,38 @@
         <v>72</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H49" s="12">
         <v>800</v>
       </c>
-      <c r="I49" s="12">
-        <v>80</v>
-      </c>
+      <c r="I49" s="12"/>
       <c r="J49" s="13">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K49" s="13">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="L49" s="13">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="M49" s="1">
-        <v>-2906.7449321495801</v>
+        <v>1991.7488158696999</v>
       </c>
       <c r="N49" s="1">
-        <v>-27.949470501438199</v>
+        <v>22.633509271246599</v>
       </c>
       <c r="O49" s="2">
-        <v>799.79988326523699</v>
+        <v>799.96478563253095</v>
       </c>
       <c r="P49" s="2">
-        <v>692.57915815816602</v>
+        <v>562.47576825386</v>
       </c>
       <c r="Q49" s="3">
-        <v>-79.946381848007604</v>
+        <v>-270.96491228070101</v>
       </c>
       <c r="R49" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3802,40 +3713,38 @@
         <v>72</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H50" s="12">
         <v>900</v>
       </c>
-      <c r="I50" s="12">
-        <v>80</v>
-      </c>
+      <c r="I50" s="12"/>
       <c r="J50" s="13">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K50" s="13">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="L50" s="13">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="M50" s="1">
-        <v>-2841.4767220978501</v>
+        <v>2388.2314002727899</v>
       </c>
       <c r="N50" s="1">
-        <v>-27.321891558633201</v>
+        <v>27.1389931849181</v>
       </c>
       <c r="O50" s="2">
-        <v>899.77486867338303</v>
+        <v>899.96038383660198</v>
       </c>
       <c r="P50" s="2">
-        <v>701.90318816557794</v>
+        <v>575.26552904105699</v>
       </c>
       <c r="Q50" s="3">
-        <v>-79.946381848009295</v>
+        <v>-270.96491228070101</v>
       </c>
       <c r="R50" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3859,40 +3768,38 @@
         <v>72</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H51" s="12">
         <v>1000</v>
       </c>
-      <c r="I51" s="12">
-        <v>80</v>
-      </c>
+      <c r="I51" s="12"/>
       <c r="J51" s="13">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K51" s="13">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="L51" s="13">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="M51" s="1">
-        <v>-2441.66313130238</v>
+        <v>3078.7224295762499</v>
       </c>
       <c r="N51" s="1">
-        <v>-23.477530108676699</v>
+        <v>34.985482154275601</v>
       </c>
       <c r="O51" s="2">
-        <v>999.74985408154305</v>
+        <v>999.95598204067198</v>
       </c>
       <c r="P51" s="2">
-        <v>759.019415422066</v>
+        <v>597.53943321213501</v>
       </c>
       <c r="Q51" s="3">
-        <v>-79.946381848008699</v>
+        <v>-270.96491228070101</v>
       </c>
       <c r="R51" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3916,40 +3823,38 @@
         <v>73</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H52" s="12">
         <v>500</v>
       </c>
-      <c r="I52" s="12">
-        <v>80</v>
-      </c>
+      <c r="I52" s="12"/>
       <c r="J52" s="13">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K52" s="13">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="L52" s="13">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M52" s="1">
-        <v>-1119.3428195674301</v>
+        <v>109.117968860402</v>
       </c>
       <c r="N52" s="1">
-        <v>-8.6103293812879595</v>
+        <v>0.99198153509456699</v>
       </c>
       <c r="O52" s="2">
         <v>499.98037291462202</v>
       </c>
       <c r="P52" s="2">
-        <v>499.66330453836002</v>
+        <v>439.74090402048603</v>
       </c>
       <c r="Q52" s="3">
-        <v>-79.946979755975406</v>
+        <v>-270</v>
       </c>
       <c r="R52" s="3">
-        <v>-79.996859049875596</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3973,40 +3878,38 @@
         <v>73</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H53" s="12">
         <v>600</v>
       </c>
-      <c r="I53" s="12">
-        <v>80</v>
-      </c>
+      <c r="I53" s="12"/>
       <c r="J53" s="13">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K53" s="13">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L53" s="13">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="M53" s="1">
-        <v>-1558.7461518796599</v>
+        <v>1312.77679432526</v>
       </c>
       <c r="N53" s="1">
-        <v>-11.990355014458901</v>
+        <v>11.934334493866</v>
       </c>
       <c r="O53" s="2">
-        <v>599.97046953439701</v>
+        <v>599.97358922440606</v>
       </c>
       <c r="P53" s="2">
-        <v>599.61635293572601</v>
+        <v>511.35325113654602</v>
       </c>
       <c r="Q53" s="3">
-        <v>-79.946655897812903</v>
+        <v>-262.39436619718299</v>
       </c>
       <c r="R53" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -4030,40 +3933,38 @@
         <v>73</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H54" s="12">
         <v>700</v>
       </c>
-      <c r="I54" s="12">
-        <v>80</v>
-      </c>
+      <c r="I54" s="12"/>
       <c r="J54" s="13">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K54" s="13">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="L54" s="13">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="M54" s="1">
-        <v>-2367.67301925417</v>
+        <v>3126.8565501766402</v>
       </c>
       <c r="N54" s="1">
-        <v>-18.212869378878199</v>
+        <v>28.425968637969401</v>
       </c>
       <c r="O54" s="2">
-        <v>699.82489785709095</v>
+        <v>699.96918742847595</v>
       </c>
       <c r="P54" s="2">
-        <v>649.63211373815602</v>
+        <v>557.86811667119503</v>
       </c>
       <c r="Q54" s="3">
-        <v>-79.946439246839404</v>
+        <v>-262.39436619718299</v>
       </c>
       <c r="R54" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -4087,40 +3988,38 @@
         <v>73</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H55" s="12">
         <v>800</v>
       </c>
-      <c r="I55" s="12">
-        <v>80</v>
-      </c>
+      <c r="I55" s="12"/>
       <c r="J55" s="13">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K55" s="13">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="L55" s="13">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="M55" s="1">
-        <v>-4105.6012203054697</v>
+        <v>3063.6972677194099</v>
       </c>
       <c r="N55" s="1">
-        <v>-31.5815478485036</v>
+        <v>27.851793342903701</v>
       </c>
       <c r="O55" s="2">
-        <v>799.79988326523699</v>
+        <v>799.96478563253095</v>
       </c>
       <c r="P55" s="2">
-        <v>705.97301869113596</v>
+        <v>556.24864789024195</v>
       </c>
       <c r="Q55" s="3">
-        <v>-79.945781719955406</v>
+        <v>-262.39436619718299</v>
       </c>
       <c r="R55" s="3">
-        <v>-79.996859666338395</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -4144,40 +4043,38 @@
         <v>73</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H56" s="12">
         <v>900</v>
       </c>
-      <c r="I56" s="12">
-        <v>80</v>
-      </c>
+      <c r="I56" s="12"/>
       <c r="J56" s="13">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K56" s="13">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="L56" s="13">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="M56" s="1">
-        <v>-3940.3667549509801</v>
+        <v>3207.0193682653999</v>
       </c>
       <c r="N56" s="1">
-        <v>-30.3105134996229</v>
+        <v>29.154721529685499</v>
       </c>
       <c r="O56" s="2">
-        <v>899.77486867338303</v>
+        <v>899.96038383660198</v>
       </c>
       <c r="P56" s="2">
-        <v>726.62732686046104</v>
+        <v>559.92357354526598</v>
       </c>
       <c r="Q56" s="3">
-        <v>-79.945781719956301</v>
+        <v>-262.39436619718202</v>
       </c>
       <c r="R56" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -4201,40 +4098,38 @@
         <v>73</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H57" s="12">
         <v>1000</v>
       </c>
-      <c r="I57" s="12">
-        <v>80</v>
-      </c>
+      <c r="I57" s="12"/>
       <c r="J57" s="13">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K57" s="13">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="L57" s="13">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="M57" s="1">
-        <v>-3440.5869088527302</v>
+        <v>4197.3757273458004</v>
       </c>
       <c r="N57" s="1">
-        <v>-26.466053145021</v>
+        <v>38.157961157689101</v>
       </c>
       <c r="O57" s="2">
-        <v>999.74985408154305</v>
+        <v>999.95598204067198</v>
       </c>
       <c r="P57" s="2">
-        <v>789.09980762273096</v>
+        <v>585.31732634219804</v>
       </c>
       <c r="Q57" s="3">
-        <v>-79.945781719955605</v>
+        <v>-262.39436619718202</v>
       </c>
       <c r="R57" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -4258,40 +4153,38 @@
         <v>74</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H58" s="12">
         <v>500</v>
       </c>
-      <c r="I58" s="12">
-        <v>80</v>
-      </c>
+      <c r="I58" s="12"/>
       <c r="J58" s="13">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="K58" s="13">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="L58" s="13">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="M58" s="1">
-        <v>-1658.4101175426099</v>
+        <v>-1171.9005776900999</v>
       </c>
       <c r="N58" s="1">
-        <v>-11.516736927379201</v>
+        <v>-9.6057424400828104</v>
       </c>
       <c r="O58" s="2">
         <v>499.98037291462202</v>
       </c>
       <c r="P58" s="2">
-        <v>499.68090990952197</v>
+        <v>434.06887605133102</v>
       </c>
       <c r="Q58" s="3">
-        <v>-79.944768393736197</v>
+        <v>-268.896103896103</v>
       </c>
       <c r="R58" s="3">
-        <v>-79.996859049875596</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -4315,40 +4208,38 @@
         <v>74</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H59" s="12">
         <v>600</v>
       </c>
-      <c r="I59" s="12">
-        <v>80</v>
-      </c>
+      <c r="I59" s="12"/>
       <c r="J59" s="13">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="K59" s="13">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="L59" s="13">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="M59" s="1">
-        <v>-1997.82093068525</v>
+        <v>-537.85298147440994</v>
       </c>
       <c r="N59" s="1">
-        <v>-13.873756463092001</v>
+        <v>-4.4086309956918903</v>
       </c>
       <c r="O59" s="2">
-        <v>599.97046953439701</v>
+        <v>599.97358922440606</v>
       </c>
       <c r="P59" s="2">
-        <v>599.64055022729997</v>
+        <v>502.61334191525702</v>
       </c>
       <c r="Q59" s="3">
-        <v>-79.944527952826604</v>
+        <v>-261.049382716048</v>
       </c>
       <c r="R59" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4372,40 +4263,38 @@
         <v>74</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H60" s="12">
         <v>700</v>
       </c>
-      <c r="I60" s="12">
-        <v>80</v>
-      </c>
+      <c r="I60" s="12"/>
       <c r="J60" s="13">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="K60" s="13">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="L60" s="13">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="M60" s="1">
-        <v>-2706.7552788901298</v>
+        <v>666.85655017658405</v>
       </c>
       <c r="N60" s="1">
-        <v>-18.7969116589592</v>
+        <v>5.4660372965293798</v>
       </c>
       <c r="O60" s="2">
-        <v>699.94763418741002</v>
+        <v>699.96918742847595</v>
       </c>
       <c r="P60" s="2">
-        <v>653.82507377559205</v>
+        <v>545.54641375441497</v>
       </c>
       <c r="Q60" s="3">
-        <v>-79.944364880282194</v>
+        <v>-257.98780487804902</v>
       </c>
       <c r="R60" s="3">
-        <v>-79.996859666367499</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4429,40 +4318,38 @@
         <v>74</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H61" s="12">
         <v>800</v>
       </c>
-      <c r="I61" s="12">
-        <v>80</v>
-      </c>
+      <c r="I61" s="12"/>
       <c r="J61" s="13">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="K61" s="13">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L61" s="13">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="M61" s="1">
-        <v>-4344.6909607720099</v>
+        <v>603.69726771947103</v>
       </c>
       <c r="N61" s="1">
-        <v>-30.171465005361199</v>
+        <v>4.94833825999567</v>
       </c>
       <c r="O61" s="2">
-        <v>799.94015335701897</v>
+        <v>799.96478563253095</v>
       </c>
       <c r="P61" s="2">
-        <v>716.41381143178796</v>
+        <v>543.967431692986</v>
       </c>
       <c r="Q61" s="3">
-        <v>-79.943816767837802</v>
+        <v>-257.987804878048</v>
       </c>
       <c r="R61" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4486,40 +4373,38 @@
         <v>74</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H62" s="12">
         <v>900</v>
       </c>
-      <c r="I62" s="12">
-        <v>80</v>
-      </c>
+      <c r="I62" s="12"/>
       <c r="J62" s="13">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="K62" s="13">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L62" s="13">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="M62" s="1">
-        <v>-4079.4639762476399</v>
+        <v>747.01936826541998</v>
       </c>
       <c r="N62" s="1">
-        <v>-28.329610946164099</v>
+        <v>6.1231095759460699</v>
       </c>
       <c r="O62" s="2">
-        <v>899.93267252665805</v>
+        <v>899.96038383660198</v>
       </c>
       <c r="P62" s="2">
-        <v>745.88347637892798</v>
+        <v>547.55048420663502</v>
       </c>
       <c r="Q62" s="3">
-        <v>-79.943816767837006</v>
+        <v>-257.987804878048</v>
       </c>
       <c r="R62" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4543,40 +4428,38 @@
         <v>74</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H63" s="12">
         <v>1000</v>
       </c>
-      <c r="I63" s="12">
-        <v>80</v>
-      </c>
+      <c r="I63" s="12"/>
       <c r="J63" s="13">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="K63" s="13">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L63" s="13">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="M63" s="1">
-        <v>-3479.6916109798299</v>
+        <v>1737.3757273457099</v>
       </c>
       <c r="N63" s="1">
-        <v>-24.1645250762488</v>
+        <v>14.2407846503747</v>
       </c>
       <c r="O63" s="2">
-        <v>999.92519169626701</v>
+        <v>999.95598204067198</v>
       </c>
       <c r="P63" s="2">
-        <v>812.52485029756804</v>
+        <v>572.30939318364301</v>
       </c>
       <c r="Q63" s="3">
-        <v>-79.943816767836694</v>
+        <v>-257.987804878048</v>
       </c>
       <c r="R63" s="3">
-        <v>-79.996859666352904</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4600,40 +4483,38 @@
         <v>75</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H64" s="12">
         <v>500</v>
       </c>
-      <c r="I64" s="12">
-        <v>80</v>
-      </c>
+      <c r="I64" s="12"/>
       <c r="J64" s="13">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K64" s="13">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="L64" s="13">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="M64" s="1">
-        <v>-1518.44242317198</v>
+        <v>-2133.9411281215798</v>
       </c>
       <c r="N64" s="1">
-        <v>-9.2587952632438295</v>
+        <v>-15.0277544233914</v>
       </c>
       <c r="O64" s="2">
-        <v>499.98037291462202</v>
+        <v>499.98037291463697</v>
       </c>
       <c r="P64" s="2">
-        <v>499.68710881539897</v>
+        <v>441.78546807604698</v>
       </c>
       <c r="Q64" s="3">
-        <v>-79.945726385277595</v>
+        <v>-271.04395604395597</v>
       </c>
       <c r="R64" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4657,40 +4538,38 @@
         <v>75</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H65" s="12">
         <v>600</v>
       </c>
-      <c r="I65" s="12">
-        <v>80</v>
-      </c>
+      <c r="I65" s="12"/>
       <c r="J65" s="13">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K65" s="13">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="L65" s="13">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="M65" s="1">
-        <v>-1558.01989474536</v>
+        <v>-900.30164199227795</v>
       </c>
       <c r="N65" s="1">
-        <v>-9.50012130942293</v>
+        <v>-6.3401524083963201</v>
       </c>
       <c r="O65" s="2">
-        <v>599.97046953439701</v>
+        <v>599.97358922440606</v>
       </c>
       <c r="P65" s="2">
-        <v>599.64516191750101</v>
+        <v>514.99358208526996</v>
       </c>
       <c r="Q65" s="3">
-        <v>-79.945494199611403</v>
+        <v>-264.26315789473603</v>
       </c>
       <c r="R65" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4714,40 +4593,38 @@
         <v>75</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H66" s="12">
         <v>700</v>
       </c>
-      <c r="I66" s="12">
-        <v>80</v>
-      </c>
+      <c r="I66" s="12"/>
       <c r="J66" s="13">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K66" s="13">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="L66" s="13">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="M66" s="1">
-        <v>-1967.1209013810101</v>
+        <v>409.10212249438302</v>
       </c>
       <c r="N66" s="1">
-        <v>-11.994639642567099</v>
+        <v>2.8810008626364998</v>
       </c>
       <c r="O66" s="2">
-        <v>699.94763418741002</v>
+        <v>699.96918742847595</v>
       </c>
       <c r="P66" s="2">
-        <v>662.98228508611101</v>
+        <v>554.871785271617</v>
       </c>
       <c r="Q66" s="3">
-        <v>-79.945336762903906</v>
+        <v>-261.61458333333297</v>
       </c>
       <c r="R66" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4771,40 +4648,38 @@
         <v>75</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H67" s="12">
         <v>800</v>
       </c>
-      <c r="I67" s="12">
-        <v>80</v>
-      </c>
+      <c r="I67" s="12"/>
       <c r="J67" s="13">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K67" s="13">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="L67" s="13">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="M67" s="1">
-        <v>-3305.2232416936099</v>
+        <v>451.03650545876002</v>
       </c>
       <c r="N67" s="1">
-        <v>-20.153800254229299</v>
+        <v>3.1763134187236601</v>
       </c>
       <c r="O67" s="2">
-        <v>799.94015335701897</v>
+        <v>799.96478563253095</v>
       </c>
       <c r="P67" s="2">
-        <v>737.19925295332098</v>
+        <v>555.78340229258094</v>
       </c>
       <c r="Q67" s="3">
-        <v>-79.9448307706149</v>
+        <v>-261.61458333333297</v>
       </c>
       <c r="R67" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4828,40 +4703,38 @@
         <v>75</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H68" s="12">
         <v>900</v>
       </c>
-      <c r="I68" s="12">
-        <v>80</v>
-      </c>
+      <c r="I68" s="12"/>
       <c r="J68" s="13">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K68" s="13">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="L68" s="13">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="M68" s="1">
-        <v>-2740.1629156002</v>
+        <v>994.02601072202299</v>
       </c>
       <c r="N68" s="1">
-        <v>-16.708310460976801</v>
+        <v>7.0001831740987503</v>
       </c>
       <c r="O68" s="2">
-        <v>899.93267252665805</v>
+        <v>899.96038383660198</v>
       </c>
       <c r="P68" s="2">
-        <v>784.28761346111105</v>
+        <v>567.58752197221895</v>
       </c>
       <c r="Q68" s="3">
-        <v>-79.944830770615397</v>
+        <v>-261.614583333334</v>
       </c>
       <c r="R68" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4885,40 +4758,38 @@
         <v>75</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H69" s="12">
         <v>1000</v>
       </c>
-      <c r="I69" s="12">
-        <v>80</v>
-      </c>
+      <c r="I69" s="12"/>
       <c r="J69" s="13">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K69" s="13">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="L69" s="13">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="M69" s="1">
-        <v>-1840.5572087631699</v>
+        <v>2384.04977451986</v>
       </c>
       <c r="N69" s="1">
-        <v>-11.222909809531499</v>
+        <v>16.789082919153898</v>
       </c>
       <c r="O69" s="2">
-        <v>999.92519169626701</v>
+        <v>999.95598204067198</v>
       </c>
       <c r="P69" s="2">
-        <v>859.254755697527</v>
+        <v>597.805429880867</v>
       </c>
       <c r="Q69" s="3">
-        <v>-79.944830770615098</v>
+        <v>-261.61458333333297</v>
       </c>
       <c r="R69" s="3">
-        <v>-79.996913222959805</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -4942,40 +4813,38 @@
         <v>76</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H70" s="12">
         <v>500</v>
       </c>
-      <c r="I70" s="12">
-        <v>80</v>
-      </c>
+      <c r="I70" s="12"/>
       <c r="J70" s="13">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K70" s="13">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="L70" s="13">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="M70" s="1">
-        <v>-1239.6865161200501</v>
+        <v>-2311.1325047022901</v>
       </c>
       <c r="N70" s="1">
-        <v>-7.0839229492574498</v>
+        <v>-15.2048191098835</v>
       </c>
       <c r="O70" s="2">
         <v>499.98037291462202</v>
       </c>
       <c r="P70" s="2">
-        <v>499.63302398637097</v>
+        <v>444.979027690696</v>
       </c>
       <c r="Q70" s="3">
-        <v>-79.945183292942602</v>
+        <v>-268.77551020407998</v>
       </c>
       <c r="R70" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -4999,40 +4868,38 @@
         <v>76</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H71" s="12">
         <v>600</v>
       </c>
-      <c r="I71" s="12">
-        <v>80</v>
-      </c>
+      <c r="I71" s="12"/>
       <c r="J71" s="13">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K71" s="13">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="L71" s="13">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="M71" s="1">
-        <v>-1079.6271174150299</v>
+        <v>-1427.4804203216599</v>
       </c>
       <c r="N71" s="1">
-        <v>-6.1692978138001804</v>
+        <v>-9.3913185547477802</v>
       </c>
       <c r="O71" s="2">
-        <v>599.97046953439701</v>
+        <v>599.97358922440606</v>
       </c>
       <c r="P71" s="2">
-        <v>599.56784075095197</v>
+        <v>518.418766932209</v>
       </c>
       <c r="Q71" s="3">
-        <v>-79.944974946686699</v>
+        <v>-260.48543689320297</v>
       </c>
       <c r="R71" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -5056,40 +4923,38 @@
         <v>76</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H72" s="12">
         <v>700</v>
       </c>
-      <c r="I72" s="12">
-        <v>80</v>
-      </c>
+      <c r="I72" s="12"/>
       <c r="J72" s="13">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K72" s="13">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="L72" s="13">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="M72" s="1">
-        <v>-1289.0912537722099</v>
+        <v>81.560214443495994</v>
       </c>
       <c r="N72" s="1">
-        <v>-7.36623573584124</v>
+        <v>0.536580358180895</v>
       </c>
       <c r="O72" s="2">
-        <v>699.94763418741002</v>
+        <v>699.96918742847595</v>
       </c>
       <c r="P72" s="2">
-        <v>667.18778636709806</v>
+        <v>560.86583780090496</v>
       </c>
       <c r="Q72" s="3">
-        <v>-79.944833050714493</v>
+        <v>-258.07692307692201</v>
       </c>
       <c r="R72" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -5113,40 +4978,38 @@
         <v>76</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H73" s="12">
         <v>800</v>
       </c>
-      <c r="I73" s="12">
-        <v>80</v>
-      </c>
+      <c r="I73" s="12"/>
       <c r="J73" s="13">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K73" s="13">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="L73" s="13">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="M73" s="1">
-        <v>-3305.08660428453</v>
+        <v>-249.622969112053</v>
       </c>
       <c r="N73" s="1">
-        <v>-18.886209167340098</v>
+        <v>-1.64225637573719</v>
       </c>
       <c r="O73" s="2">
-        <v>799.94015335701897</v>
+        <v>799.96478563253095</v>
       </c>
       <c r="P73" s="2">
-        <v>741.97935083608104</v>
+        <v>553.96618814349802</v>
       </c>
       <c r="Q73" s="3">
-        <v>-79.943322007120898</v>
+        <v>-258.07692307692298</v>
       </c>
       <c r="R73" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -5170,40 +5033,38 @@
         <v>76</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H74" s="12">
         <v>900</v>
       </c>
-      <c r="I74" s="12">
-        <v>80</v>
-      </c>
+      <c r="I74" s="12"/>
       <c r="J74" s="13">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K74" s="13">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="L74" s="13">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="M74" s="1">
-        <v>-2640.10871251247</v>
+        <v>393.28410182996498</v>
       </c>
       <c r="N74" s="1">
-        <v>-15.0863355000712</v>
+        <v>2.58739540677609</v>
       </c>
       <c r="O74" s="2">
-        <v>899.93267252665805</v>
+        <v>899.96038383660198</v>
       </c>
       <c r="P74" s="2">
-        <v>793.13149635701495</v>
+        <v>567.36008545479001</v>
       </c>
       <c r="Q74" s="3">
-        <v>-79.943322007121395</v>
+        <v>-258.07692307692201</v>
       </c>
       <c r="R74" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -5227,40 +5088,38 @@
         <v>76</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H75" s="12">
         <v>1000</v>
       </c>
-      <c r="I75" s="12">
-        <v>80</v>
-      </c>
+      <c r="I75" s="12"/>
       <c r="J75" s="13">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K75" s="13">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="L75" s="13">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="M75" s="1">
-        <v>-1640.58543999672</v>
+        <v>1883.22543130643</v>
       </c>
       <c r="N75" s="1">
-        <v>-9.3747739428384005</v>
+        <v>12.389640995437</v>
       </c>
       <c r="O75" s="2">
-        <v>999.92519169626701</v>
+        <v>999.95598204067198</v>
       </c>
       <c r="P75" s="2">
-        <v>870.01790193514103</v>
+        <v>598.400529818883</v>
       </c>
       <c r="Q75" s="3">
-        <v>-79.943322007120699</v>
+        <v>-258.07692307692201</v>
       </c>
       <c r="R75" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -5284,40 +5143,38 @@
         <v>77</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H76" s="12">
         <v>500</v>
       </c>
-      <c r="I76" s="12">
-        <v>80</v>
-      </c>
+      <c r="I76" s="12"/>
       <c r="J76" s="13">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K76" s="13">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="L76" s="13">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="M76" s="1">
-        <v>-1139.7686649023899</v>
+        <v>-2161.5874818103698</v>
       </c>
       <c r="N76" s="1">
-        <v>-6.2970644469745602</v>
+        <v>-13.6809334291795</v>
       </c>
       <c r="O76" s="2">
-        <v>499.98037291462202</v>
+        <v>499.98037291463697</v>
       </c>
       <c r="P76" s="2">
-        <v>499.63651034577799</v>
+        <v>446.93593782481503</v>
       </c>
       <c r="Q76" s="3">
-        <v>-79.945622802881502</v>
+        <v>-266.56862745097999</v>
       </c>
       <c r="R76" s="3">
-        <v>-79.996913222988894</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -5341,40 +5198,38 @@
         <v>77</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H77" s="12">
         <v>600</v>
       </c>
-      <c r="I77" s="12">
-        <v>80</v>
-      </c>
+      <c r="I77" s="12"/>
       <c r="J77" s="13">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K77" s="13">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="L77" s="13">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="M77" s="1">
-        <v>-879.76662414681005</v>
+        <v>-1078.02639285127</v>
       </c>
       <c r="N77" s="1">
-        <v>-4.8605890836840304</v>
+        <v>-6.8229518534890596</v>
       </c>
       <c r="O77" s="2">
-        <v>599.97046953439701</v>
+        <v>599.97358922440606</v>
       </c>
       <c r="P77" s="2">
-        <v>599.57224132856902</v>
+        <v>521.60732563036595</v>
       </c>
       <c r="Q77" s="3">
-        <v>-79.945412737380096</v>
+        <v>-258.69158878504601</v>
       </c>
       <c r="R77" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -5398,40 +5253,38 @@
         <v>77</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H78" s="12">
         <v>700</v>
       </c>
-      <c r="I78" s="12">
-        <v>80</v>
-      </c>
+      <c r="I78" s="12"/>
       <c r="J78" s="13">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K78" s="13">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L78" s="13">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="M78" s="1">
-        <v>-989.28811845341897</v>
+        <v>630.92324649222405</v>
       </c>
       <c r="N78" s="1">
-        <v>-5.46568021244983</v>
+        <v>3.9931851043811601</v>
       </c>
       <c r="O78" s="2">
-        <v>699.94763418741002</v>
+        <v>699.96918742847595</v>
       </c>
       <c r="P78" s="2">
-        <v>668.98838125525003</v>
+        <v>566.41846492984496</v>
       </c>
       <c r="Q78" s="3">
-        <v>-79.945269822379899</v>
+        <v>-256.38888888888903</v>
       </c>
       <c r="R78" s="3">
-        <v>-79.996913222959805</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -5455,40 +5308,38 @@
         <v>77</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H79" s="12">
         <v>800</v>
       </c>
-      <c r="I79" s="12">
-        <v>80</v>
-      </c>
+      <c r="I79" s="12"/>
       <c r="J79" s="13">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K79" s="13">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="L79" s="13">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="M79" s="1">
-        <v>-3784.8360769598999</v>
+        <v>-254.892068889195</v>
       </c>
       <c r="N79" s="1">
-        <v>-20.9106965577895</v>
+        <v>-1.61324094233668</v>
       </c>
       <c r="O79" s="2">
-        <v>799.94015335701897</v>
+        <v>799.96478563253095</v>
       </c>
       <c r="P79" s="2">
-        <v>741.97935083608002</v>
+        <v>548.70215862221596</v>
       </c>
       <c r="Q79" s="3">
-        <v>-79.943854987077003</v>
+        <v>-256.38888888888903</v>
       </c>
       <c r="R79" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -5512,40 +5363,38 @@
         <v>77</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H80" s="12">
         <v>900</v>
       </c>
-      <c r="I80" s="12">
-        <v>80</v>
-      </c>
+      <c r="I80" s="12"/>
       <c r="J80" s="13">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K80" s="13">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="L80" s="13">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="M80" s="1">
-        <v>-3119.8581851877898</v>
+        <v>487.98136458067103</v>
       </c>
       <c r="N80" s="1">
-        <v>-17.236785553523699</v>
+        <v>3.08848964924475</v>
       </c>
       <c r="O80" s="2">
-        <v>899.93267252665805</v>
+        <v>899.96038383660198</v>
       </c>
       <c r="P80" s="2">
-        <v>793.13149635701404</v>
+        <v>563.55962729161297</v>
       </c>
       <c r="Q80" s="3">
-        <v>-79.943854987077202</v>
+        <v>-256.388888888888</v>
       </c>
       <c r="R80" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -5569,40 +5418,38 @@
         <v>77</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H81" s="12">
         <v>1000</v>
       </c>
-      <c r="I81" s="12">
-        <v>80</v>
-      </c>
+      <c r="I81" s="12"/>
       <c r="J81" s="13">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K81" s="13">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="L81" s="13">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="M81" s="1">
-        <v>-2120.33491267212</v>
+        <v>2077.8890565849201</v>
       </c>
       <c r="N81" s="1">
-        <v>-11.7145575285753</v>
+        <v>13.151196560664101</v>
       </c>
       <c r="O81" s="2">
-        <v>999.92519169626701</v>
+        <v>999.95598204067198</v>
       </c>
       <c r="P81" s="2">
-        <v>870.01790193514103</v>
+        <v>595.35778113169897</v>
       </c>
       <c r="Q81" s="3">
-        <v>-79.943854987077103</v>
+        <v>-256.38888888888903</v>
       </c>
       <c r="R81" s="3">
-        <v>-79.996913222988894</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -5626,40 +5473,38 @@
         <v>78</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H82" s="12">
         <v>500</v>
       </c>
-      <c r="I82" s="12">
-        <v>80</v>
-      </c>
+      <c r="I82" s="12"/>
       <c r="J82" s="13">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="K82" s="13">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="L82" s="13">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="M82" s="1">
-        <v>-1619.4058429025699</v>
+        <v>-1778.0540455912101</v>
       </c>
       <c r="N82" s="1">
-        <v>-8.65992429359666</v>
+        <v>-10.841792960922</v>
       </c>
       <c r="O82" s="2">
         <v>499.98037291463697</v>
       </c>
       <c r="P82" s="2">
-        <v>499.63651034577799</v>
+        <v>449.60925346455599</v>
       </c>
       <c r="Q82" s="3">
-        <v>-79.945399883265097</v>
+        <v>-269.57142857142799</v>
       </c>
       <c r="R82" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -5683,40 +5528,38 @@
         <v>78</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H83" s="12">
         <v>600</v>
       </c>
-      <c r="I83" s="12">
-        <v>80</v>
-      </c>
+      <c r="I83" s="12"/>
       <c r="J83" s="13">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="K83" s="13">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L83" s="13">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="M83" s="1">
-        <v>-1359.4038021470401</v>
+        <v>-394.78626938826301</v>
       </c>
       <c r="N83" s="1">
-        <v>-7.26953904891469</v>
+        <v>-2.40723334992843</v>
       </c>
       <c r="O83" s="2">
-        <v>599.97046953439701</v>
+        <v>599.97358922440606</v>
       </c>
       <c r="P83" s="2">
-        <v>599.57224132857004</v>
+        <v>525.92988390021696</v>
       </c>
       <c r="Q83" s="3">
-        <v>-79.945201369571507</v>
+        <v>-261.77272727272702</v>
       </c>
       <c r="R83" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -5740,40 +5583,38 @@
         <v>78</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H84" s="12">
         <v>700</v>
       </c>
-      <c r="I84" s="12">
-        <v>80</v>
-      </c>
+      <c r="I84" s="12"/>
       <c r="J84" s="13">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="K84" s="13">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="L84" s="13">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="M84" s="1">
-        <v>-1468.92529645373</v>
+        <v>1613.87005719904</v>
       </c>
       <c r="N84" s="1">
-        <v>-7.8552154890573798</v>
+        <v>9.8406710804820001</v>
       </c>
       <c r="O84" s="2">
-        <v>699.94763418741002</v>
+        <v>699.96918742847595</v>
       </c>
       <c r="P84" s="2">
-        <v>668.98838125524901</v>
+        <v>573.94094447545297</v>
       </c>
       <c r="Q84" s="3">
-        <v>-79.9450660298711</v>
+        <v>-259.50450450450398</v>
       </c>
       <c r="R84" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -5797,40 +5638,38 @@
         <v>78</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H85" s="12">
         <v>800</v>
       </c>
-      <c r="I85" s="12">
-        <v>80</v>
-      </c>
+      <c r="I85" s="12"/>
       <c r="J85" s="13">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="K85" s="13">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L85" s="13">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="M85" s="1">
-        <v>-4264.4732549601104</v>
+        <v>1027.7614290614999</v>
       </c>
       <c r="N85" s="1">
-        <v>-22.804669812620901</v>
+        <v>6.2668379820823201</v>
       </c>
       <c r="O85" s="2">
-        <v>799.94015335701897</v>
+        <v>799.96478563253095</v>
       </c>
       <c r="P85" s="2">
-        <v>741.97935083608104</v>
+        <v>562.88229111436704</v>
       </c>
       <c r="Q85" s="3">
-        <v>-79.943705838098694</v>
+        <v>-259.50450450450398</v>
       </c>
       <c r="R85" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -5854,40 +5693,38 @@
         <v>78</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H86" s="12">
         <v>900</v>
       </c>
-      <c r="I86" s="12">
-        <v>80</v>
-      </c>
+      <c r="I86" s="12"/>
       <c r="J86" s="13">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="K86" s="13">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L86" s="13">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="M86" s="1">
-        <v>-3599.4953631879598</v>
+        <v>2070.3415497751698</v>
       </c>
       <c r="N86" s="1">
-        <v>-19.248638305817899</v>
+        <v>12.624033840092499</v>
       </c>
       <c r="O86" s="2">
-        <v>899.93267252665805</v>
+        <v>899.96038383660198</v>
       </c>
       <c r="P86" s="2">
-        <v>793.131496357017</v>
+        <v>582.55361414670006</v>
       </c>
       <c r="Q86" s="3">
-        <v>-79.943705838098694</v>
+        <v>-259.50450450450398</v>
       </c>
       <c r="R86" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -5911,40 +5748,38 @@
         <v>78</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H87" s="12">
         <v>1000</v>
       </c>
-      <c r="I87" s="12">
-        <v>80</v>
-      </c>
+      <c r="I87" s="12"/>
       <c r="J87" s="13">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="K87" s="13">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L87" s="13">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="M87" s="1">
-        <v>-2599.9720906724201</v>
+        <v>3230.9780438718999</v>
       </c>
       <c r="N87" s="1">
-        <v>-13.9035940677669</v>
+        <v>19.701085633365199</v>
       </c>
       <c r="O87" s="2">
-        <v>999.92519169626701</v>
+        <v>999.95598204067198</v>
       </c>
       <c r="P87" s="2">
-        <v>870.01790193514103</v>
+        <v>604.45241592211096</v>
       </c>
       <c r="Q87" s="3">
-        <v>-79.943705838099106</v>
+        <v>-259.50450450450398</v>
       </c>
       <c r="R87" s="3">
-        <v>-79.996913222974399</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
